--- a/app_output/aweber_emails_not_in_mds1.xlsx
+++ b/app_output/aweber_emails_not_in_mds1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1268">
   <si>
     <t>Aweber Subscriber List</t>
   </si>
@@ -68,13 +68,13 @@
     <t>subscribed</t>
   </si>
   <si>
-    <t>2016-09-15 22:50:00</t>
+    <t>2016-09-15 01:30:02</t>
   </si>
   <si>
     <t>webform</t>
   </si>
   <si>
-    <t>2016-12-22 22:49:53</t>
+    <t>2016-12-23 01:29:54</t>
   </si>
   <si>
     <t>Elizabeth Graziolo</t>
@@ -83,7 +83,7 @@
     <t>liz@ppapc.com</t>
   </si>
   <si>
-    <t>2016-02-19 22:50:00</t>
+    <t>2016-02-19 01:30:01</t>
   </si>
   <si>
     <t>email</t>
@@ -95,7 +95,7 @@
     <t>ebottcher@council.nyc.gov</t>
   </si>
   <si>
-    <t>2015-05-29 22:49:57</t>
+    <t>2015-05-29 01:29:59</t>
   </si>
   <si>
     <t>Mario Mazzoni</t>
@@ -104,7 +104,7 @@
     <t>education@pennsouth.coop</t>
   </si>
   <si>
-    <t>2015-05-21 22:49:56</t>
+    <t>2015-05-21 01:29:58</t>
   </si>
   <si>
     <t>frizell_test</t>
@@ -116,7 +116,7 @@
     <t>steve@sfnyc.net</t>
   </si>
   <si>
-    <t>2016-11-25 22:50:01</t>
+    <t>2016-11-25 01:30:02</t>
   </si>
   <si>
     <t>B</t>
@@ -128,7 +128,7 @@
     <t>elinoralpern@gmail.com</t>
   </si>
   <si>
-    <t>2016-09-10 22:50:00</t>
+    <t>2016-09-10 01:30:02</t>
   </si>
   <si>
     <t>C</t>
@@ -140,7 +140,7 @@
     <t>ken@kenyellin.com</t>
   </si>
   <si>
-    <t>2016-09-11 22:50:00</t>
+    <t>2016-09-11 01:30:02</t>
   </si>
   <si>
     <t>Renee Horowitz</t>
@@ -149,7 +149,7 @@
     <t>reneehorowitz21@gmail.com</t>
   </si>
   <si>
-    <t>2016-09-09 22:50:00</t>
+    <t>2016-09-09 01:30:02</t>
   </si>
   <si>
     <t>D</t>
@@ -161,7 +161,7 @@
     <t>artzspirit@gmail.com</t>
   </si>
   <si>
-    <t>2016-10-10 22:50:01</t>
+    <t>2016-10-10 01:30:02</t>
   </si>
   <si>
     <t>roslyn nessim</t>
@@ -185,7 +185,7 @@
     <t>wsmarrito@msn.com</t>
   </si>
   <si>
-    <t>2016-11-21 22:50:01</t>
+    <t>2016-11-21 01:30:02</t>
   </si>
   <si>
     <t>F</t>
@@ -206,7 +206,7 @@
     <t>nwgoler@gmail.com</t>
   </si>
   <si>
-    <t>2016-10-27 22:50:01</t>
+    <t>2016-10-27 01:30:02</t>
   </si>
   <si>
     <t>Remi Brulin</t>
@@ -221,7 +221,7 @@
     <t>ekatsman@hotmail.com</t>
   </si>
   <si>
-    <t>2016-10-03 22:50:00</t>
+    <t>2016-10-03 01:30:02</t>
   </si>
   <si>
     <t>H</t>
@@ -233,7 +233,7 @@
     <t>katinkamann5@aol.com</t>
   </si>
   <si>
-    <t>2016-10-09 22:50:01</t>
+    <t>2016-10-09 01:30:02</t>
   </si>
   <si>
     <t>Norman Afsi</t>
@@ -242,7 +242,7 @@
     <t>normanafsi@gmail.com</t>
   </si>
   <si>
-    <t>2016-09-19 22:50:00</t>
+    <t>2016-09-19 01:30:02</t>
   </si>
   <si>
     <t>J</t>
@@ -260,7 +260,7 @@
     <t>eunicenbob@gmail.com</t>
   </si>
   <si>
-    <t>2016-09-13 22:50:00</t>
+    <t>2016-09-13 01:30:02</t>
   </si>
   <si>
     <t>Liliana Kelson</t>
@@ -275,7 +275,7 @@
     <t>barbara.tint@gmail.com</t>
   </si>
   <si>
-    <t>2016-09-06 22:50:00</t>
+    <t>2016-09-06 01:30:02</t>
   </si>
   <si>
     <t>'3</t>
@@ -290,7 +290,7 @@
     <t>steve.frizell@gmail.com</t>
   </si>
   <si>
-    <t>2016-11-29 22:50:01</t>
+    <t>2016-11-29 01:30:02</t>
   </si>
   <si>
     <t>api</t>
@@ -305,7 +305,7 @@
     <t>krishughes1@gmail.com</t>
   </si>
   <si>
-    <t>2015-04-14 22:49:56</t>
+    <t>2015-04-14 01:29:57</t>
   </si>
   <si>
     <t>import</t>
@@ -317,7 +317,7 @@
     <t>vb4guy@hotmail.com</t>
   </si>
   <si>
-    <t>2015-05-26 22:49:56</t>
+    <t>2015-05-26 01:29:58</t>
   </si>
   <si>
     <t>Lillian Levy</t>
@@ -338,25 +338,19 @@
     <t>kuritanyc@hotmail.com</t>
   </si>
   <si>
-    <t>2015-05-26 22:49:57</t>
-  </si>
-  <si>
     <t>Donald Brandoff</t>
   </si>
   <si>
     <t>dbrandof@courts.state.ny.us</t>
   </si>
   <si>
-    <t>2015-04-14 22:49:55</t>
-  </si>
-  <si>
     <t>Laura Engler-Perez</t>
   </si>
   <si>
     <t>lenglerper@verizon.net</t>
   </si>
   <si>
-    <t>2015-04-14 22:49:53</t>
+    <t>2015-04-14 01:29:55</t>
   </si>
   <si>
     <t>Bema Martsinovsky</t>
@@ -365,9 +359,6 @@
     <t>zaraza69@gmail.com</t>
   </si>
   <si>
-    <t>2015-04-14 22:49:54</t>
-  </si>
-  <si>
     <t>PATRICIA ROSEN</t>
   </si>
   <si>
@@ -398,6 +389,9 @@
     <t>mark.newman@mac.com</t>
   </si>
   <si>
+    <t>2015-04-14 01:29:54</t>
+  </si>
+  <si>
     <t>Sandy Kern</t>
   </si>
   <si>
@@ -410,7 +404,7 @@
     <t>hoboken22@optonline.net</t>
   </si>
   <si>
-    <t>2015-06-11 22:49:58</t>
+    <t>2015-06-11 01:29:59</t>
   </si>
   <si>
     <t>Annelise Strankmann</t>
@@ -425,7 +419,7 @@
     <t>patrickhanafee@gmail.com</t>
   </si>
   <si>
-    <t>2016-10-05 22:50:01</t>
+    <t>2016-10-05 01:30:02</t>
   </si>
   <si>
     <t>SARA NAKHMANOVICH</t>
@@ -434,7 +428,7 @@
     <t>s.nakhmanovich@gmail.com</t>
   </si>
   <si>
-    <t>2015-09-15 22:49:58</t>
+    <t>2015-09-15 01:30:00</t>
   </si>
   <si>
     <t>SHYAMA C. ORUM</t>
@@ -443,13 +437,16 @@
     <t>shyamaorum@gmail.com</t>
   </si>
   <si>
+    <t>2015-09-15 01:29:59</t>
+  </si>
+  <si>
     <t>DEBORAH SWITALSKI</t>
   </si>
   <si>
     <t>dswitalski@gmail.com</t>
   </si>
   <si>
-    <t>2016-05-06 22:50:00</t>
+    <t>2016-05-06 01:30:01</t>
   </si>
   <si>
     <t>RUI QUN LIANG</t>
@@ -458,9 +455,6 @@
     <t>ruiqunliang@msn.com</t>
   </si>
   <si>
-    <t>2015-09-15 22:49:59</t>
-  </si>
-  <si>
     <t>JAC SMITH</t>
   </si>
   <si>
@@ -494,9 +488,6 @@
     <t>mevers@metlife.com</t>
   </si>
   <si>
-    <t>2016-10-05 22:50:00</t>
-  </si>
-  <si>
     <t>JILL NOELLE CANNON</t>
   </si>
   <si>
@@ -509,12 +500,18 @@
     <t>judy.lacoff@gmail.com</t>
   </si>
   <si>
+    <t>2015-05-26 01:29:59</t>
+  </si>
+  <si>
     <t>Alex Stadler</t>
   </si>
   <si>
     <t>taomander@yahoo.com</t>
   </si>
   <si>
+    <t>2015-04-14 01:29:56</t>
+  </si>
+  <si>
     <t>Judy B. Sutherland</t>
   </si>
   <si>
@@ -608,7 +605,7 @@
     <t>sclee206@gmail.com</t>
   </si>
   <si>
-    <t>2016-12-13 22:50:01</t>
+    <t>2016-12-13 01:30:02</t>
   </si>
   <si>
     <t>Judd Hollander</t>
@@ -695,7 +692,7 @@
     <t>nardamagill@gmail.com</t>
   </si>
   <si>
-    <t>2015-05-19 22:49:56</t>
+    <t>2015-05-19 01:29:58</t>
   </si>
   <si>
     <t>Rosanne Glassberg</t>
@@ -860,7 +857,7 @@
     <t>wendyweisman@gmail.com</t>
   </si>
   <si>
-    <t>2016-10-31 22:50:01</t>
+    <t>2016-10-31 01:30:02</t>
   </si>
   <si>
     <t>Frances Timmons</t>
@@ -1295,6 +1292,9 @@
     <t>linoralee@aol.com</t>
   </si>
   <si>
+    <t>2015-05-19 01:29:57</t>
+  </si>
+  <si>
     <t>MARJORIE VAI</t>
   </si>
   <si>
@@ -2159,7 +2159,7 @@
     <t>elliam22@aol.com</t>
   </si>
   <si>
-    <t>2015-07-15 22:49:58</t>
+    <t>2015-07-15 01:29:59</t>
   </si>
   <si>
     <t>Mary  Jones</t>
@@ -2168,7 +2168,7 @@
     <t>maryjones5665@gmail.com</t>
   </si>
   <si>
-    <t>2015-10-03 22:49:59</t>
+    <t>2015-10-03 01:30:00</t>
   </si>
   <si>
     <t>Steven Zelin</t>
@@ -2177,7 +2177,7 @@
     <t>zelinsteven@gmail.com</t>
   </si>
   <si>
-    <t>2016-06-11 22:50:00</t>
+    <t>2016-06-11 01:30:01</t>
   </si>
   <si>
     <t>N</t>
@@ -2189,7 +2189,7 @@
     <t>dennislanglois@gmail.com</t>
   </si>
   <si>
-    <t>2015-08-08 22:49:58</t>
+    <t>2015-08-08 01:29:59</t>
   </si>
   <si>
     <t>John Fahr</t>
@@ -2198,7 +2198,7 @@
     <t>jfahr@mac.com</t>
   </si>
   <si>
-    <t>2015-11-05 22:49:59</t>
+    <t>2015-11-05 01:30:01</t>
   </si>
   <si>
     <t>Michael Gatton</t>
@@ -2207,7 +2207,7 @@
     <t>mgatton@gmail.com</t>
   </si>
   <si>
-    <t>2016-08-17 22:50:00</t>
+    <t>2016-08-17 01:30:02</t>
   </si>
   <si>
     <t>Porsche Brown</t>
@@ -2216,7 +2216,7 @@
     <t>porschebrown@gmail.com</t>
   </si>
   <si>
-    <t>2016-01-26 22:49:59</t>
+    <t>2016-01-26 01:30:01</t>
   </si>
   <si>
     <t>Renada McGriff</t>
@@ -2225,7 +2225,7 @@
     <t>iboomer2002@yahoo.com</t>
   </si>
   <si>
-    <t>2015-07-02 22:49:58</t>
+    <t>2015-07-02 01:29:59</t>
   </si>
   <si>
     <t>Viktorya Rush</t>
@@ -2234,7 +2234,7 @@
     <t>vloshak@hotmail.com</t>
   </si>
   <si>
-    <t>2015-12-08 22:49:59</t>
+    <t>2015-12-08 01:30:01</t>
   </si>
   <si>
     <t>William Knoble</t>
@@ -2249,7 +2249,7 @@
     <t>solomonmauskopf@gmail.com</t>
   </si>
   <si>
-    <t>2015-07-20 22:49:58</t>
+    <t>2015-07-20 01:29:59</t>
   </si>
   <si>
     <t>Ellen Kessler</t>
@@ -2264,7 +2264,7 @@
     <t>moeyc521@gmail.com</t>
   </si>
   <si>
-    <t>2016-08-21 22:50:00</t>
+    <t>2016-08-21 01:30:02</t>
   </si>
   <si>
     <t>Michael Vanderheyden</t>
@@ -2273,7 +2273,7 @@
     <t>michaeljsv61@verizon.net</t>
   </si>
   <si>
-    <t>2016-02-26 22:50:00</t>
+    <t>2016-02-26 01:30:01</t>
   </si>
   <si>
     <t>George Bloomer</t>
@@ -2282,7 +2282,7 @@
     <t>gtbjr10011@gmail.com</t>
   </si>
   <si>
-    <t>2015-09-09 22:49:58</t>
+    <t>2015-09-09 01:29:59</t>
   </si>
   <si>
     <t>Marla Kesten</t>
@@ -2291,7 +2291,7 @@
     <t>mkesten1@gmail.com</t>
   </si>
   <si>
-    <t>2016-01-11 22:49:59</t>
+    <t>2016-01-11 01:30:01</t>
   </si>
   <si>
     <t>Michael Schanzer</t>
@@ -2300,7 +2300,7 @@
     <t>mrschanzer@verizon.net</t>
   </si>
   <si>
-    <t>2016-04-21 22:50:00</t>
+    <t>2016-04-21 01:30:01</t>
   </si>
   <si>
     <t>Greg Farrell</t>
@@ -2309,7 +2309,7 @@
     <t>gfarrell212@aol.com</t>
   </si>
   <si>
-    <t>2016-06-01 22:50:00</t>
+    <t>2016-06-01 01:30:01</t>
   </si>
   <si>
     <t>Sky Oh</t>
@@ -2318,7 +2318,7 @@
     <t>skymarie73@gmail.com</t>
   </si>
   <si>
-    <t>2015-11-07 22:49:59</t>
+    <t>2015-11-07 01:30:01</t>
   </si>
   <si>
     <t>Howard and Petra Schein</t>
@@ -2327,7 +2327,7 @@
     <t>petraschein1424@gmail.com</t>
   </si>
   <si>
-    <t>2015-11-04 22:49:59</t>
+    <t>2015-11-04 01:30:01</t>
   </si>
   <si>
     <t>Bei  Ge</t>
@@ -2336,7 +2336,7 @@
     <t>hanhan528@msn.com</t>
   </si>
   <si>
-    <t>2016-06-15 22:50:00</t>
+    <t>2016-06-15 01:30:01</t>
   </si>
   <si>
     <t>Helen Iranyi</t>
@@ -2357,7 +2357,7 @@
     <t>jim@wallace.nyc</t>
   </si>
   <si>
-    <t>2016-07-13 22:50:00</t>
+    <t>2016-07-13 01:30:01</t>
   </si>
   <si>
     <t>Laura Covino</t>
@@ -2366,7 +2366,7 @@
     <t>lcovino@outlook.com</t>
   </si>
   <si>
-    <t>2015-05-30 22:49:58</t>
+    <t>2015-05-30 01:29:59</t>
   </si>
   <si>
     <t>Gary Glanzman</t>
@@ -2375,7 +2375,7 @@
     <t>massageacupnyc@aol.com</t>
   </si>
   <si>
-    <t>2015-09-22 22:49:59</t>
+    <t>2015-09-22 01:30:00</t>
   </si>
   <si>
     <t>GEORGIA WEVER</t>
@@ -2384,7 +2384,7 @@
     <t>gawever@gmail.com</t>
   </si>
   <si>
-    <t>2015-06-06 22:49:58</t>
+    <t>2015-06-06 01:29:59</t>
   </si>
   <si>
     <t>Diana Benson</t>
@@ -2393,7 +2393,7 @@
     <t>negritosbeach@gmail.com</t>
   </si>
   <si>
-    <t>2016-06-17 22:50:00</t>
+    <t>2016-06-17 01:30:01</t>
   </si>
   <si>
     <t>Daniel Valdes</t>
@@ -2402,7 +2402,7 @@
     <t>dvaldes21@gmail.com</t>
   </si>
   <si>
-    <t>2015-07-01 22:49:58</t>
+    <t>2015-07-01 01:29:59</t>
   </si>
   <si>
     <t>Marilyn Goldstein</t>
@@ -2411,7 +2411,7 @@
     <t>marigoldnyc@gmail.com</t>
   </si>
   <si>
-    <t>2015-08-04 22:49:58</t>
+    <t>2015-08-04 01:29:59</t>
   </si>
   <si>
     <t>Bayon Lee</t>
@@ -2420,7 +2420,7 @@
     <t>skybay.eb@gmail.com</t>
   </si>
   <si>
-    <t>2016-06-27 22:50:00</t>
+    <t>2016-06-27 01:30:01</t>
   </si>
   <si>
     <t>Bin bin xu</t>
@@ -2429,7 +2429,7 @@
     <t>binbinxu1213@gmail.com</t>
   </si>
   <si>
-    <t>2015-07-27 22:49:58</t>
+    <t>2015-07-27 01:29:59</t>
   </si>
   <si>
     <t>xia chen</t>
@@ -2444,7 +2444,7 @@
     <t>judithtane@gmail.com</t>
   </si>
   <si>
-    <t>2016-06-13 22:50:00</t>
+    <t>2016-06-13 01:30:01</t>
   </si>
   <si>
     <t>mike brill</t>
@@ -2453,7 +2453,7 @@
     <t>michael.brill@duffandphelps.com</t>
   </si>
   <si>
-    <t>2016-05-10 22:50:00</t>
+    <t>2016-05-10 01:30:01</t>
   </si>
   <si>
     <t>Raskin Joseph</t>
@@ -2462,7 +2462,7 @@
     <t>jbraskin@hotmail.com</t>
   </si>
   <si>
-    <t>2016-06-24 22:50:00</t>
+    <t>2016-06-24 01:30:01</t>
   </si>
   <si>
     <t>Carolyn  Pollak</t>
@@ -2471,7 +2471,7 @@
     <t>carolynpollak@gmail.com</t>
   </si>
   <si>
-    <t>2015-05-31 22:49:58</t>
+    <t>2015-05-31 01:29:59</t>
   </si>
   <si>
     <t>Jessica Tillman</t>
@@ -2480,7 +2480,7 @@
     <t>jayemargo@rcn.com</t>
   </si>
   <si>
-    <t>2015-06-13 22:49:58</t>
+    <t>2015-06-13 01:29:59</t>
   </si>
   <si>
     <t>Siu Lan Tai</t>
@@ -2489,7 +2489,7 @@
     <t>siulantai@yahoo.com</t>
   </si>
   <si>
-    <t>2015-06-07 22:49:58</t>
+    <t>2015-06-07 01:29:59</t>
   </si>
   <si>
     <t>SAMUEL EARLE</t>
@@ -2504,7 +2504,7 @@
     <t>e_aninias@yahoo.com</t>
   </si>
   <si>
-    <t>2016-06-10 22:50:00</t>
+    <t>2016-06-10 01:30:01</t>
   </si>
   <si>
     <t>Joshua Belknap</t>
@@ -2513,7 +2513,7 @@
     <t>joshuapbelknap@gmail.com</t>
   </si>
   <si>
-    <t>2015-08-10 22:49:58</t>
+    <t>2015-08-10 01:29:59</t>
   </si>
   <si>
     <t>H. Theodore Kluwe</t>
@@ -2528,7 +2528,7 @@
     <t>j.dreyfuss2@gmail.com</t>
   </si>
   <si>
-    <t>2015-05-28 22:49:57</t>
+    <t>2015-05-28 01:29:59</t>
   </si>
   <si>
     <t>Michael Hanko</t>
@@ -2537,7 +2537,7 @@
     <t>michaelhanko.nyc@gmail.com</t>
   </si>
   <si>
-    <t>2015-06-03 22:49:58</t>
+    <t>2015-06-03 01:29:59</t>
   </si>
   <si>
     <t>Peter Lappin</t>
@@ -2552,7 +2552,7 @@
     <t>karinakhal@yahoo.com</t>
   </si>
   <si>
-    <t>2015-06-09 22:49:58</t>
+    <t>2015-06-09 01:29:59</t>
   </si>
   <si>
     <t>michael brill</t>
@@ -2579,7 +2579,7 @@
     <t>j9294985p@rcn.com</t>
   </si>
   <si>
-    <t>2015-06-23 22:49:58</t>
+    <t>2015-06-23 01:29:59</t>
   </si>
   <si>
     <t>Angiie Leon</t>
@@ -2588,13 +2588,13 @@
     <t>al6@nyu.edu</t>
   </si>
   <si>
-    <t>2016-03-04 22:50:00</t>
+    <t>2016-03-04 01:30:01</t>
   </si>
   <si>
     <t>ryananne064@gmail.com</t>
   </si>
   <si>
-    <t>2016-08-03 22:50:00</t>
+    <t>2016-08-03 01:30:01</t>
   </si>
   <si>
     <t>Nerupa Singh</t>
@@ -2603,7 +2603,7 @@
     <t>singh_nerupa@yahoo.com</t>
   </si>
   <si>
-    <t>2016-06-26 22:50:00</t>
+    <t>2016-06-26 01:30:01</t>
   </si>
   <si>
     <t>andrew markowitz</t>
@@ -2612,7 +2612,7 @@
     <t>andymlaw7@gmail.com</t>
   </si>
   <si>
-    <t>2015-08-28 22:49:58</t>
+    <t>2015-08-28 01:29:59</t>
   </si>
   <si>
     <t>Martha  Lerner</t>
@@ -2621,7 +2621,7 @@
     <t>martital333@gmail.com</t>
   </si>
   <si>
-    <t>2016-07-14 22:50:00</t>
+    <t>2016-07-14 01:30:01</t>
   </si>
   <si>
     <t>Mark Steinhauer</t>
@@ -2630,7 +2630,7 @@
     <t>heymark29822@gmail.com</t>
   </si>
   <si>
-    <t>2015-07-10 22:49:58</t>
+    <t>2015-07-10 01:29:59</t>
   </si>
   <si>
     <t>SOPHIE HERSCHMAN</t>
@@ -2639,7 +2639,7 @@
     <t>wiljop7@gmail.com</t>
   </si>
   <si>
-    <t>2015-05-27 22:49:57</t>
+    <t>2015-05-27 01:29:59</t>
   </si>
   <si>
     <t>Noemi Corujo</t>
@@ -2654,7 +2654,7 @@
     <t>bfinn@rcn.com</t>
   </si>
   <si>
-    <t>2015-11-01 22:49:59</t>
+    <t>2015-11-01 01:30:01</t>
   </si>
   <si>
     <t>sue spencer</t>
@@ -2687,7 +2687,7 @@
     <t>srtousley@bmcc.cuny.edu</t>
   </si>
   <si>
-    <t>2015-06-01 22:49:58</t>
+    <t>2015-06-01 01:29:59</t>
   </si>
   <si>
     <t>Elizabeth Greenberg</t>
@@ -2696,7 +2696,7 @@
     <t>drlizgreenberg@gmail.com</t>
   </si>
   <si>
-    <t>2015-10-02 22:49:59</t>
+    <t>2015-10-02 01:30:00</t>
   </si>
   <si>
     <t>jerry thompkins</t>
@@ -2705,7 +2705,7 @@
     <t>thompsonjay3@gmail.com</t>
   </si>
   <si>
-    <t>2016-03-01 22:50:00</t>
+    <t>2016-03-01 01:30:01</t>
   </si>
   <si>
     <t>Richard Thomas</t>
@@ -2726,7 +2726,7 @@
     <t>yedgxe@gmail.com</t>
   </si>
   <si>
-    <t>2015-11-20 22:49:59</t>
+    <t>2015-11-20 01:30:01</t>
   </si>
   <si>
     <t>NO</t>
@@ -2738,7 +2738,7 @@
     <t>burkey@rcn.com</t>
   </si>
   <si>
-    <t>2015-11-22 22:49:59</t>
+    <t>2015-11-22 01:30:01</t>
   </si>
   <si>
     <t>Adam Thomas</t>
@@ -2747,7 +2747,7 @@
     <t>iamadamsami@gmail.com</t>
   </si>
   <si>
-    <t>2015-08-21 22:49:58</t>
+    <t>2015-08-21 01:29:59</t>
   </si>
   <si>
     <t>Alexander Bendioukov</t>
@@ -2756,7 +2756,7 @@
     <t>jamaika46@yahoo.com</t>
   </si>
   <si>
-    <t>2016-07-09 22:50:00</t>
+    <t>2016-07-09 01:30:01</t>
   </si>
   <si>
     <t>Andrew Kitch</t>
@@ -2765,7 +2765,7 @@
     <t>andrew.kitch@gmail.com</t>
   </si>
   <si>
-    <t>2016-05-11 22:50:00</t>
+    <t>2016-05-11 01:30:01</t>
   </si>
   <si>
     <t>Angela Wong</t>
@@ -2774,7 +2774,7 @@
     <t>angelawongus@gmail.com</t>
   </si>
   <si>
-    <t>2015-07-12 22:49:58</t>
+    <t>2015-07-12 01:29:59</t>
   </si>
   <si>
     <t>ann marie sclafani</t>
@@ -2783,7 +2783,7 @@
     <t>amsclafani@gmail.com</t>
   </si>
   <si>
-    <t>2016-04-04 22:50:00</t>
+    <t>2016-04-04 01:30:01</t>
   </si>
   <si>
     <t>Anna Leontyeva</t>
@@ -2792,7 +2792,7 @@
     <t>annaleontyeva17@gmail.com</t>
   </si>
   <si>
-    <t>2016-03-22 22:50:00</t>
+    <t>2016-03-22 01:30:01</t>
   </si>
   <si>
     <t>Anne Mc Corry</t>
@@ -2801,7 +2801,7 @@
     <t>annemccorry@yahoo.com</t>
   </si>
   <si>
-    <t>2016-01-10 22:49:59</t>
+    <t>2016-01-10 01:30:01</t>
   </si>
   <si>
     <t>Asiah Lemon</t>
@@ -2810,7 +2810,7 @@
     <t>asiah_lemon@icloud.com</t>
   </si>
   <si>
-    <t>2016-01-28 22:49:59</t>
+    <t>2016-01-28 01:30:01</t>
   </si>
   <si>
     <t>ayako ochi</t>
@@ -2819,7 +2819,7 @@
     <t>alicia0518jp@yahoo.co.jp</t>
   </si>
   <si>
-    <t>2016-08-09 22:50:00</t>
+    <t>2016-08-09 01:30:02</t>
   </si>
   <si>
     <t>Bei Lei Wang</t>
@@ -2834,7 +2834,7 @@
     <t>ngbenjamin@gmail.com</t>
   </si>
   <si>
-    <t>2015-06-12 22:49:58</t>
+    <t>2015-06-12 01:29:59</t>
   </si>
   <si>
     <t>Bruce Cohen</t>
@@ -2849,7 +2849,7 @@
     <t>carrieweinblatt@gmail.com</t>
   </si>
   <si>
-    <t>2015-07-16 22:49:58</t>
+    <t>2015-07-16 01:29:59</t>
   </si>
   <si>
     <t>Catherine Falzone</t>
@@ -2858,7 +2858,7 @@
     <t>cff222@nyu.edu</t>
   </si>
   <si>
-    <t>2015-06-10 22:49:58</t>
+    <t>2015-06-10 01:29:59</t>
   </si>
   <si>
     <t>Cynthia Smith</t>
@@ -2879,7 +2879,7 @@
     <t>david@decorativedavid.com</t>
   </si>
   <si>
-    <t>2016-09-03 22:50:00</t>
+    <t>2016-09-03 01:30:02</t>
   </si>
   <si>
     <t>Deimosa Webber-Bey</t>
@@ -2888,7 +2888,7 @@
     <t>thetragicmulatto@gmail.com</t>
   </si>
   <si>
-    <t>2015-11-21 22:49:59</t>
+    <t>2015-11-21 01:30:01</t>
   </si>
   <si>
     <t>Elena Sandalova</t>
@@ -2897,7 +2897,7 @@
     <t>koshkin13@yahoo.com</t>
   </si>
   <si>
-    <t>2015-08-20 22:49:58</t>
+    <t>2015-08-20 01:29:59</t>
   </si>
   <si>
     <t>Emily Hooper</t>
@@ -2912,7 +2912,7 @@
     <t>eholgui@comptroller.nyc.gov</t>
   </si>
   <si>
-    <t>2016-06-07 22:50:00</t>
+    <t>2016-06-07 01:30:01</t>
   </si>
   <si>
     <t>F F</t>
@@ -2921,7 +2921,7 @@
     <t>effluxx@hotmail.com</t>
   </si>
   <si>
-    <t>2016-05-01 22:50:00</t>
+    <t>2016-05-01 01:30:01</t>
   </si>
   <si>
     <t>Gabriella Sapoznik</t>
@@ -2930,7 +2930,7 @@
     <t>asapoznik@gmail.com</t>
   </si>
   <si>
-    <t>2016-07-21 22:50:00</t>
+    <t>2016-07-21 01:30:01</t>
   </si>
   <si>
     <t>Gail Tucker</t>
@@ -2939,7 +2939,7 @@
     <t>lifeandtimes@nyc.rr.com</t>
   </si>
   <si>
-    <t>2015-06-19 22:49:58</t>
+    <t>2015-06-19 01:29:59</t>
   </si>
   <si>
     <t>gayle goodman</t>
@@ -2948,7 +2948,7 @@
     <t>ggprny@gmail.com</t>
   </si>
   <si>
-    <t>2015-12-28 22:49:59</t>
+    <t>2015-12-28 01:30:01</t>
   </si>
   <si>
     <t>George Laskaris</t>
@@ -2957,7 +2957,7 @@
     <t>nycghl@aol.com</t>
   </si>
   <si>
-    <t>2016-06-23 22:50:00</t>
+    <t>2016-06-23 01:30:01</t>
   </si>
   <si>
     <t>henry dubro</t>
@@ -2966,7 +2966,7 @@
     <t>hdubro@gmail.com</t>
   </si>
   <si>
-    <t>2016-01-02 22:49:59</t>
+    <t>2016-01-02 01:30:01</t>
   </si>
   <si>
     <t>Ingrid Brock</t>
@@ -2975,7 +2975,7 @@
     <t>ingrid.brock@aol.com</t>
   </si>
   <si>
-    <t>2015-08-24 22:49:58</t>
+    <t>2015-08-24 01:29:59</t>
   </si>
   <si>
     <t>irene kats</t>
@@ -2990,7 +2990,7 @@
     <t>irenelau6@gmail.com</t>
   </si>
   <si>
-    <t>2016-07-06 22:50:00</t>
+    <t>2016-07-06 01:30:01</t>
   </si>
   <si>
     <t>James Bitting</t>
@@ -2999,7 +2999,7 @@
     <t>jbitting@kwnyc.com</t>
   </si>
   <si>
-    <t>2015-10-20 22:49:59</t>
+    <t>2015-10-20 01:30:00</t>
   </si>
   <si>
     <t>James Cucinell</t>
@@ -3008,7 +3008,7 @@
     <t>jimcooch@aol.com</t>
   </si>
   <si>
-    <t>2016-08-05 22:50:00</t>
+    <t>2016-08-05 01:30:01</t>
   </si>
   <si>
     <t>Jennifer Hernandez</t>
@@ -3017,7 +3017,7 @@
     <t>jennifer0775@hotmail.com</t>
   </si>
   <si>
-    <t>2015-08-05 22:49:58</t>
+    <t>2015-08-05 01:29:59</t>
   </si>
   <si>
     <t>Jerry Genualdi</t>
@@ -3032,7 +3032,7 @@
     <t>jesuslebron@icloud.com</t>
   </si>
   <si>
-    <t>2015-07-29 22:49:58</t>
+    <t>2015-07-29 01:29:59</t>
   </si>
   <si>
     <t>Joe Romano</t>
@@ -3047,7 +3047,7 @@
     <t>a240e35@verizon.net</t>
   </si>
   <si>
-    <t>2015-07-09 22:49:58</t>
+    <t>2015-07-09 01:29:59</t>
   </si>
   <si>
     <t>john kennedy</t>
@@ -3056,7 +3056,7 @@
     <t>jjkenn87@gmail.com</t>
   </si>
   <si>
-    <t>2016-07-19 22:50:00</t>
+    <t>2016-07-19 01:30:01</t>
   </si>
   <si>
     <t>John Maida</t>
@@ -3065,7 +3065,7 @@
     <t>john.maida@live.com</t>
   </si>
   <si>
-    <t>2015-08-06 22:49:58</t>
+    <t>2015-08-06 01:29:59</t>
   </si>
   <si>
     <t>Johnny Ma</t>
@@ -3074,7 +3074,7 @@
     <t>johnnyhma@gmail.com</t>
   </si>
   <si>
-    <t>2015-10-19 22:49:59</t>
+    <t>2015-10-19 01:30:00</t>
   </si>
   <si>
     <t>Jonathan Zaremba</t>
@@ -3083,7 +3083,7 @@
     <t>jczaremba@gmail.com</t>
   </si>
   <si>
-    <t>2015-08-14 22:49:58</t>
+    <t>2015-08-14 01:29:59</t>
   </si>
   <si>
     <t>Judith King</t>
@@ -3098,7 +3098,7 @@
     <t>jlee928@gmail.com</t>
   </si>
   <si>
-    <t>2015-09-17 22:49:59</t>
+    <t>2015-09-17 01:30:00</t>
   </si>
   <si>
     <t>Justino Rodriguez</t>
@@ -3113,7 +3113,7 @@
     <t>karina@dlhcapital.com</t>
   </si>
   <si>
-    <t>2015-09-03 22:49:58</t>
+    <t>2015-09-03 01:29:59</t>
   </si>
   <si>
     <t>Kathleen Koller</t>
@@ -3122,7 +3122,7 @@
     <t>kkny3@yahoo.com</t>
   </si>
   <si>
-    <t>2015-12-15 22:49:59</t>
+    <t>2015-12-15 01:30:01</t>
   </si>
   <si>
     <t>Kathleen Stack</t>
@@ -3137,7 +3137,7 @@
     <t>kelly241@aol.com</t>
   </si>
   <si>
-    <t>2015-06-08 22:49:58</t>
+    <t>2015-06-08 01:29:59</t>
   </si>
   <si>
     <t>ken douglas</t>
@@ -3146,7 +3146,7 @@
     <t>ken.h.douglas@gmail.com</t>
   </si>
   <si>
-    <t>2016-04-11 22:50:00</t>
+    <t>2016-04-11 01:30:01</t>
   </si>
   <si>
     <t xml:space="preserve">Kevin Routledge </t>
@@ -3155,7 +3155,7 @@
     <t>kcroutledge83@yahoo.com</t>
   </si>
   <si>
-    <t>2016-03-08 22:50:00</t>
+    <t>2016-03-08 01:30:01</t>
   </si>
   <si>
     <t>Kim Midkiff</t>
@@ -3164,7 +3164,7 @@
     <t>kimmidkiff@gmail.com</t>
   </si>
   <si>
-    <t>2016-03-29 22:50:00</t>
+    <t>2016-03-29 01:30:01</t>
   </si>
   <si>
     <t>Kyu Kahn</t>
@@ -3179,7 +3179,7 @@
     <t>kgavrilchik@yahoo.com</t>
   </si>
   <si>
-    <t>2015-08-07 22:49:58</t>
+    <t>2015-08-07 01:29:59</t>
   </si>
   <si>
     <t>LESLIE NEWMAN</t>
@@ -3194,7 +3194,7 @@
     <t>linda.osborne@gmail.com</t>
   </si>
   <si>
-    <t>2015-06-30 22:49:58</t>
+    <t>2015-06-30 01:29:59</t>
   </si>
   <si>
     <t>Louise  Sheingold</t>
@@ -3203,7 +3203,7 @@
     <t>lsheingold@earthlink.net</t>
   </si>
   <si>
-    <t>2015-11-18 22:49:59</t>
+    <t>2015-11-18 01:30:01</t>
   </si>
   <si>
     <t>Luke Mathews</t>
@@ -3212,7 +3212,7 @@
     <t>lujoma_nyc@yahoo.com</t>
   </si>
   <si>
-    <t>2016-02-16 22:50:00</t>
+    <t>2016-02-16 01:30:01</t>
   </si>
   <si>
     <t>LYDIA BOLOTNY</t>
@@ -3221,7 +3221,7 @@
     <t>lbolotny@yahoo.com</t>
   </si>
   <si>
-    <t>2015-10-15 22:49:59</t>
+    <t>2015-10-15 01:30:00</t>
   </si>
   <si>
     <t>Malgorzata Kolb</t>
@@ -3230,7 +3230,7 @@
     <t>gosia.kolb@gmail.com</t>
   </si>
   <si>
-    <t>2016-04-20 22:50:00</t>
+    <t>2016-04-20 01:30:01</t>
   </si>
   <si>
     <t>Maria Macklifg</t>
@@ -3239,16 +3239,13 @@
     <t>maria.mackliff@hotmail.com</t>
   </si>
   <si>
-    <t>2015-05-29 22:49:58</t>
-  </si>
-  <si>
     <t>marian hill coger</t>
   </si>
   <si>
     <t>mariancoger@gmail.com</t>
   </si>
   <si>
-    <t>2016-02-05 22:49:59</t>
+    <t>2016-02-05 01:30:01</t>
   </si>
   <si>
     <t>Marie Rommage</t>
@@ -3257,7 +3254,7 @@
     <t>3atmycake@gmail.com</t>
   </si>
   <si>
-    <t>2016-02-21 22:50:00</t>
+    <t>2016-02-21 01:30:01</t>
   </si>
   <si>
     <t>Marisol Rodriguez</t>
@@ -3278,7 +3275,7 @@
     <t>mecjm01@gmail.com</t>
   </si>
   <si>
-    <t>2015-11-14 22:49:59</t>
+    <t>2015-11-14 01:30:01</t>
   </si>
   <si>
     <t>Mary Quinlan</t>
@@ -3287,7 +3284,7 @@
     <t>maryquinlan@hotmail.com</t>
   </si>
   <si>
-    <t>2015-06-02 22:49:58</t>
+    <t>2015-06-02 01:29:59</t>
   </si>
   <si>
     <t>Maryana Dudkina</t>
@@ -3308,7 +3305,7 @@
     <t>melody.rubie@gmail.com</t>
   </si>
   <si>
-    <t>2015-08-27 22:49:58</t>
+    <t>2015-08-27 01:29:59</t>
   </si>
   <si>
     <t>Michael Levin</t>
@@ -3323,7 +3320,7 @@
     <t>nhaseley@yahoo.com</t>
   </si>
   <si>
-    <t>2015-08-11 22:49:58</t>
+    <t>2015-08-11 01:29:59</t>
   </si>
   <si>
     <t>NATALE DI GIORGIO</t>
@@ -3332,7 +3329,7 @@
     <t>digiorgio1@aol.com</t>
   </si>
   <si>
-    <t>2016-07-29 22:50:00</t>
+    <t>2016-07-29 01:30:01</t>
   </si>
   <si>
     <t>New York Zen Center for Contemplative Care</t>
@@ -3353,7 +3350,7 @@
     <t>oiyin.lo@gmail.com</t>
   </si>
   <si>
-    <t>2016-08-25 22:50:00</t>
+    <t>2016-08-25 01:30:02</t>
   </si>
   <si>
     <t>Oliver  Sterlacci</t>
@@ -3362,7 +3359,7 @@
     <t>ofsterlacci@gmail.com</t>
   </si>
   <si>
-    <t>2015-12-03 22:49:59</t>
+    <t>2015-12-03 01:30:01</t>
   </si>
   <si>
     <t>PATRICIA SINNOTT</t>
@@ -3371,7 +3368,7 @@
     <t>patriciasinnott@icloud.com</t>
   </si>
   <si>
-    <t>2015-12-10 22:49:59</t>
+    <t>2015-12-10 01:30:01</t>
   </si>
   <si>
     <t>Patrick Batchelder</t>
@@ -3392,7 +3389,7 @@
     <t>philbr330@yahoo.com</t>
   </si>
   <si>
-    <t>2016-01-16 22:49:59</t>
+    <t>2016-01-16 01:30:01</t>
   </si>
   <si>
     <t>Rachel Sliman</t>
@@ -3401,7 +3398,7 @@
     <t>rachel.sliman@gmail.com</t>
   </si>
   <si>
-    <t>2016-02-09 22:49:59</t>
+    <t>2016-02-09 01:30:01</t>
   </si>
   <si>
     <t>Rafael Barbosa</t>
@@ -3410,7 +3407,7 @@
     <t>537inc@gmail.com</t>
   </si>
   <si>
-    <t>2015-08-30 22:49:58</t>
+    <t>2015-08-30 01:29:59</t>
   </si>
   <si>
     <t>Randy Miles</t>
@@ -3419,7 +3416,7 @@
     <t>randyzjunque@gmail.com</t>
   </si>
   <si>
-    <t>2015-12-16 22:49:59</t>
+    <t>2015-12-16 01:30:01</t>
   </si>
   <si>
     <t xml:space="preserve">Robin  Kurtz </t>
@@ -3434,7 +3431,7 @@
     <t>rochellecohen215@gmail.com</t>
   </si>
   <si>
-    <t>2016-06-16 22:50:00</t>
+    <t>2016-06-16 01:30:01</t>
   </si>
   <si>
     <t>Ronald Uram</t>
@@ -3443,7 +3440,7 @@
     <t>rjuram@verizon.net</t>
   </si>
   <si>
-    <t>2015-08-31 22:49:58</t>
+    <t>2015-08-31 01:29:59</t>
   </si>
   <si>
     <t>Rosemarie Mueller</t>
@@ -3458,7 +3455,7 @@
     <t>sgo3000@gmail.com</t>
   </si>
   <si>
-    <t>2015-06-14 22:49:58</t>
+    <t>2015-06-14 01:29:59</t>
   </si>
   <si>
     <t>Steven Drieu</t>
@@ -3467,7 +3464,7 @@
     <t>srdrieu@gmail.com</t>
   </si>
   <si>
-    <t>2015-06-22 22:49:58</t>
+    <t>2015-06-22 01:29:59</t>
   </si>
   <si>
     <t>Tara Whalen</t>
@@ -3476,7 +3473,7 @@
     <t>whalent101@gmail.com</t>
   </si>
   <si>
-    <t>2015-12-19 22:49:59</t>
+    <t>2015-12-19 01:30:01</t>
   </si>
   <si>
     <t>Terin Izil</t>
@@ -3485,7 +3482,7 @@
     <t>terin.izil@gmail.com</t>
   </si>
   <si>
-    <t>2016-04-10 22:50:00</t>
+    <t>2016-04-10 01:30:01</t>
   </si>
   <si>
     <t>Tom McEntee</t>
@@ -3494,7 +3491,7 @@
     <t>tmcentee@gmail.com</t>
   </si>
   <si>
-    <t>2015-06-28 22:49:58</t>
+    <t>2015-06-28 01:29:59</t>
   </si>
   <si>
     <t>Ved Yadav</t>
@@ -3503,7 +3500,7 @@
     <t>vedyadav1958@gmail.com</t>
   </si>
   <si>
-    <t>2015-10-21 22:49:59</t>
+    <t>2015-10-21 01:30:01</t>
   </si>
   <si>
     <t>Vincent Zappacosta</t>
@@ -3518,7 +3515,7 @@
     <t>wfk@lunatipaving.com</t>
   </si>
   <si>
-    <t>2016-01-12 22:49:59</t>
+    <t>2016-01-12 01:30:01</t>
   </si>
   <si>
     <t>Williiam Ablondi</t>
@@ -3533,7 +3530,7 @@
     <t>stephycai09@hotmail.com</t>
   </si>
   <si>
-    <t>2015-10-31 22:49:59</t>
+    <t>2015-10-31 01:30:01</t>
   </si>
   <si>
     <t>Ada Cruz</t>
@@ -3554,7 +3551,7 @@
     <t>aaarista@me.com</t>
   </si>
   <si>
-    <t>2015-07-23 22:49:58</t>
+    <t>2015-07-23 01:29:59</t>
   </si>
   <si>
     <t>Bruce Tepfer</t>
@@ -3569,7 +3566,7 @@
     <t>cgstern@chchearing.org</t>
   </si>
   <si>
-    <t>2016-02-11 22:50:00</t>
+    <t>2016-02-11 01:30:01</t>
   </si>
   <si>
     <t>Cathis Brunache</t>
@@ -3578,7 +3575,7 @@
     <t>cbrunacheb@aol.com</t>
   </si>
   <si>
-    <t>2016-06-21 22:50:00</t>
+    <t>2016-06-21 01:30:01</t>
   </si>
   <si>
     <t>chou autumn</t>
@@ -3587,7 +3584,7 @@
     <t>chou1autumn@yahoo.com</t>
   </si>
   <si>
-    <t>2015-11-02 22:49:59</t>
+    <t>2015-11-02 01:30:01</t>
   </si>
   <si>
     <t>Christine Dey</t>
@@ -3596,7 +3593,7 @@
     <t>beautifulriver23@gmail.com</t>
   </si>
   <si>
-    <t>2015-09-25 22:49:59</t>
+    <t>2015-09-25 01:30:00</t>
   </si>
   <si>
     <t>Elisa Hamilton</t>
@@ -3605,7 +3602,7 @@
     <t>eham6@verizon.net</t>
   </si>
   <si>
-    <t>2015-06-20 22:49:58</t>
+    <t>2015-06-20 01:29:59</t>
   </si>
   <si>
     <t>Elyse Kaftan</t>
@@ -3614,7 +3611,7 @@
     <t>elysekaftan@gmail.com</t>
   </si>
   <si>
-    <t>2016-03-24 22:50:00</t>
+    <t>2016-03-24 01:30:01</t>
   </si>
   <si>
     <t>esther bonacci</t>
@@ -3623,7 +3620,7 @@
     <t>ddgrfan66@yahoo.com</t>
   </si>
   <si>
-    <t>2015-10-29 22:49:59</t>
+    <t>2015-10-29 01:30:01</t>
   </si>
   <si>
     <t>Evguenia Kostina</t>
@@ -3632,7 +3629,7 @@
     <t>teilan60@hotmail.com</t>
   </si>
   <si>
-    <t>2016-07-11 22:50:00</t>
+    <t>2016-07-11 01:30:01</t>
   </si>
   <si>
     <t>Ezra Wan</t>
@@ -3647,7 +3644,7 @@
     <t>ferna47@hotmail.com</t>
   </si>
   <si>
-    <t>2016-03-28 22:50:00</t>
+    <t>2016-03-28 01:30:01</t>
   </si>
   <si>
     <t>IRVING MERA</t>
@@ -3656,7 +3653,7 @@
     <t>iamny73@hotmail.com</t>
   </si>
   <si>
-    <t>2015-08-26 22:49:58</t>
+    <t>2015-08-26 01:29:59</t>
   </si>
   <si>
     <t>James Pilat</t>
@@ -3665,7 +3662,7 @@
     <t>jimin10019@gmail.com</t>
   </si>
   <si>
-    <t>2016-07-05 22:50:00</t>
+    <t>2016-07-05 01:30:01</t>
   </si>
   <si>
     <t>John Hullihan</t>
@@ -3680,7 +3677,7 @@
     <t>juvallion@gmail.com</t>
   </si>
   <si>
-    <t>2016-01-22 22:49:59</t>
+    <t>2016-01-22 01:30:01</t>
   </si>
   <si>
     <t>Lisa Perez</t>
@@ -3701,7 +3698,7 @@
     <t>rynns@comcast.net</t>
   </si>
   <si>
-    <t>2015-06-24 22:49:58</t>
+    <t>2015-06-24 01:29:59</t>
   </si>
   <si>
     <t>Margaret Weiss</t>
@@ -3710,7 +3707,7 @@
     <t>sugiew@gmail.com</t>
   </si>
   <si>
-    <t>2016-02-10 22:49:59</t>
+    <t>2016-02-10 01:30:01</t>
   </si>
   <si>
     <t>Mary Byrne</t>
@@ -3725,7 +3722,7 @@
     <t>mgreen@council.nyc.gov</t>
   </si>
   <si>
-    <t>2016-03-15 22:50:00</t>
+    <t>2016-03-15 01:30:01</t>
   </si>
   <si>
     <t>orlagh cassidy</t>
@@ -3740,7 +3737,7 @@
     <t>pmosbach4@aol.com</t>
   </si>
   <si>
-    <t>2015-12-11 22:49:59</t>
+    <t>2015-12-11 01:30:01</t>
   </si>
   <si>
     <t>Rita Capolarello</t>
@@ -3749,7 +3746,7 @@
     <t>rjcapolarello@gmail.com</t>
   </si>
   <si>
-    <t>2015-07-30 22:49:58</t>
+    <t>2015-07-30 01:29:59</t>
   </si>
   <si>
     <t>Rosalie Uyola</t>
@@ -3758,7 +3755,7 @@
     <t>ms.uyola@gmail.com</t>
   </si>
   <si>
-    <t>2015-10-27 22:49:59</t>
+    <t>2015-10-27 01:30:01</t>
   </si>
   <si>
     <t>Rosalie Zingales</t>
@@ -3773,7 +3770,7 @@
     <t>sewsorenson@yahoo.com</t>
   </si>
   <si>
-    <t>2015-06-26 22:49:58</t>
+    <t>2015-06-26 01:29:59</t>
   </si>
   <si>
     <t>TR Comity</t>
@@ -3788,7 +3785,7 @@
     <t>vtavana@gmail.com</t>
   </si>
   <si>
-    <t>2015-06-05 22:49:58</t>
+    <t>2015-06-05 01:29:59</t>
   </si>
   <si>
     <t>VICKY DASKALAKIS</t>
@@ -3797,7 +3794,7 @@
     <t>vicdask@gmail.com</t>
   </si>
   <si>
-    <t>2015-07-21 22:49:58</t>
+    <t>2015-07-21 01:29:59</t>
   </si>
   <si>
     <t>William Pugliese</t>
@@ -3812,7 +3809,7 @@
     <t>glocar05@yahoo.com</t>
   </si>
   <si>
-    <t>2015-08-17 22:49:58</t>
+    <t>2015-08-17 01:29:59</t>
   </si>
   <si>
     <t>yuichiro nishizawa</t>
@@ -3821,7 +3818,7 @@
     <t>n@liminalspace.org</t>
   </si>
   <si>
-    <t>2015-08-01 22:49:58</t>
+    <t>2015-08-01 01:29:59</t>
   </si>
 </sst>
 </file>
@@ -5144,7 +5141,7 @@
         <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J29"/>
       <c r="K29" t="s">
@@ -5168,11 +5165,11 @@
         <v>38</v>
       </c>
       <c r="E30" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" t="s">
         <v>108</v>
       </c>
-      <c r="F30" t="s">
-        <v>109</v>
-      </c>
       <c r="G30" t="s">
         <v>15</v>
       </c>
@@ -5180,7 +5177,7 @@
         <v>16</v>
       </c>
       <c r="I30" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="s">
@@ -5204,19 +5201,19 @@
         <v>60</v>
       </c>
       <c r="E31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
         <v>111</v>
-      </c>
-      <c r="F31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" t="s">
-        <v>113</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="s">
@@ -5240,10 +5237,10 @@
         <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
         <v>15</v>
@@ -5252,7 +5249,7 @@
         <v>16</v>
       </c>
       <c r="I32" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="s">
@@ -5276,10 +5273,10 @@
         <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
@@ -5288,7 +5285,7 @@
         <v>16</v>
       </c>
       <c r="I33" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J33"/>
       <c r="K33" t="s">
@@ -5312,10 +5309,10 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G34" t="s">
         <v>15</v>
@@ -5324,7 +5321,7 @@
         <v>16</v>
       </c>
       <c r="I34" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J34"/>
       <c r="K34" t="s">
@@ -5348,10 +5345,10 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G35" t="s">
         <v>15</v>
@@ -5360,7 +5357,7 @@
         <v>16</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="s">
@@ -5384,10 +5381,10 @@
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
@@ -5420,10 +5417,10 @@
         <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G37" t="s">
         <v>15</v>
@@ -5432,7 +5429,7 @@
         <v>16</v>
       </c>
       <c r="I37" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J37"/>
       <c r="K37" t="s">
@@ -5456,10 +5453,10 @@
         <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G38" t="s">
         <v>15</v>
@@ -5492,19 +5489,19 @@
         <v>57</v>
       </c>
       <c r="E39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" t="s">
         <v>129</v>
-      </c>
-      <c r="F39" t="s">
-        <v>130</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" t="s">
-        <v>131</v>
       </c>
       <c r="J39"/>
       <c r="K39" t="s">
@@ -5528,10 +5525,10 @@
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G40" t="s">
         <v>15</v>
@@ -5564,19 +5561,19 @@
         <v>76</v>
       </c>
       <c r="E41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" t="s">
         <v>134</v>
-      </c>
-      <c r="F41" t="s">
-        <v>135</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" t="s">
-        <v>136</v>
       </c>
       <c r="J41"/>
       <c r="K41" t="s">
@@ -5600,19 +5597,19 @@
         <v>60</v>
       </c>
       <c r="E42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
         <v>137</v>
-      </c>
-      <c r="F42" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" t="s">
-        <v>139</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="s">
@@ -5636,19 +5633,19 @@
         <v>51</v>
       </c>
       <c r="E43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
         <v>140</v>
-      </c>
-      <c r="F43" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
-      <c r="H43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" t="s">
-        <v>139</v>
       </c>
       <c r="J43"/>
       <c r="K43" t="s">
@@ -5672,19 +5669,19 @@
         <v>57</v>
       </c>
       <c r="E44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" t="s">
         <v>142</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
         <v>143</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" t="s">
-        <v>144</v>
       </c>
       <c r="J44"/>
       <c r="K44" t="s">
@@ -5708,11 +5705,11 @@
         <v>60</v>
       </c>
       <c r="E45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" t="s">
         <v>145</v>
       </c>
-      <c r="F45" t="s">
-        <v>146</v>
-      </c>
       <c r="G45" t="s">
         <v>15</v>
       </c>
@@ -5720,7 +5717,7 @@
         <v>16</v>
       </c>
       <c r="I45" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="s">
@@ -5744,10 +5741,10 @@
         <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G46" t="s">
         <v>15</v>
@@ -5756,7 +5753,7 @@
         <v>16</v>
       </c>
       <c r="I46" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J46"/>
       <c r="K46" t="s">
@@ -5780,10 +5777,10 @@
         <v>34</v>
       </c>
       <c r="E47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F47" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G47" t="s">
         <v>15</v>
@@ -5792,7 +5789,7 @@
         <v>16</v>
       </c>
       <c r="I47" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J47"/>
       <c r="K47" t="s">
@@ -5816,10 +5813,10 @@
         <v>69</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
@@ -5828,7 +5825,7 @@
         <v>16</v>
       </c>
       <c r="I48" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="s">
@@ -5852,10 +5849,10 @@
         <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
@@ -5864,7 +5861,7 @@
         <v>16</v>
       </c>
       <c r="I49" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J49"/>
       <c r="K49" t="s">
@@ -5879,7 +5876,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -5888,10 +5885,10 @@
         <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G50" t="s">
         <v>15</v>
@@ -5900,7 +5897,7 @@
         <v>16</v>
       </c>
       <c r="I50" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="J50"/>
       <c r="K50" t="s">
@@ -5915,7 +5912,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -5924,10 +5921,10 @@
         <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G51" t="s">
         <v>15</v>
@@ -5936,7 +5933,7 @@
         <v>16</v>
       </c>
       <c r="I51" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J51"/>
       <c r="K51" t="s">
@@ -5951,7 +5948,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -5960,10 +5957,10 @@
         <v>34</v>
       </c>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G52" t="s">
         <v>15</v>
@@ -5972,7 +5969,7 @@
         <v>16</v>
       </c>
       <c r="I52" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="J52"/>
       <c r="K52" t="s">
@@ -5987,7 +5984,7 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -5996,19 +5993,19 @@
         <v>76</v>
       </c>
       <c r="E53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" t="s">
+        <v>163</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s">
         <v>164</v>
-      </c>
-      <c r="F53" t="s">
-        <v>165</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" t="s">
-        <v>116</v>
       </c>
       <c r="J53"/>
       <c r="K53" t="s">
@@ -6023,7 +6020,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C54">
         <v>9</v>
@@ -6032,11 +6029,11 @@
         <v>34</v>
       </c>
       <c r="E54" t="s">
+        <v>165</v>
+      </c>
+      <c r="F54" t="s">
         <v>166</v>
       </c>
-      <c r="F54" t="s">
-        <v>167</v>
-      </c>
       <c r="G54" t="s">
         <v>15</v>
       </c>
@@ -6044,7 +6041,7 @@
         <v>16</v>
       </c>
       <c r="I54" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J54"/>
       <c r="K54" t="s">
@@ -6059,7 +6056,7 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C55">
         <v>14</v>
@@ -6068,11 +6065,11 @@
         <v>34</v>
       </c>
       <c r="E55" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" t="s">
         <v>168</v>
       </c>
-      <c r="F55" t="s">
-        <v>169</v>
-      </c>
       <c r="G55" t="s">
         <v>15</v>
       </c>
@@ -6080,7 +6077,7 @@
         <v>16</v>
       </c>
       <c r="I55" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J55"/>
       <c r="K55" t="s">
@@ -6095,7 +6092,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C56">
         <v>16</v>
@@ -6104,11 +6101,11 @@
         <v>51</v>
       </c>
       <c r="E56" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" t="s">
         <v>170</v>
       </c>
-      <c r="F56" t="s">
-        <v>171</v>
-      </c>
       <c r="G56" t="s">
         <v>15</v>
       </c>
@@ -6116,7 +6113,7 @@
         <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J56"/>
       <c r="K56" t="s">
@@ -6131,7 +6128,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C57">
         <v>17</v>
@@ -6140,11 +6137,11 @@
         <v>57</v>
       </c>
       <c r="E57" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" t="s">
         <v>172</v>
       </c>
-      <c r="F57" t="s">
-        <v>173</v>
-      </c>
       <c r="G57" t="s">
         <v>15</v>
       </c>
@@ -6152,7 +6149,7 @@
         <v>16</v>
       </c>
       <c r="I57" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J57"/>
       <c r="K57" t="s">
@@ -6167,7 +6164,7 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C58">
         <v>18</v>
@@ -6176,11 +6173,11 @@
         <v>76</v>
       </c>
       <c r="E58" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" t="s">
         <v>174</v>
       </c>
-      <c r="F58" t="s">
-        <v>175</v>
-      </c>
       <c r="G58" t="s">
         <v>15</v>
       </c>
@@ -6188,7 +6185,7 @@
         <v>16</v>
       </c>
       <c r="I58" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J58"/>
       <c r="K58" t="s">
@@ -6203,7 +6200,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C59">
         <v>20</v>
@@ -6212,11 +6209,11 @@
         <v>76</v>
       </c>
       <c r="E59" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" t="s">
         <v>176</v>
       </c>
-      <c r="F59" t="s">
-        <v>177</v>
-      </c>
       <c r="G59" t="s">
         <v>15</v>
       </c>
@@ -6224,7 +6221,7 @@
         <v>16</v>
       </c>
       <c r="I59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J59"/>
       <c r="K59" t="s">
@@ -6239,7 +6236,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -6248,11 +6245,11 @@
         <v>45</v>
       </c>
       <c r="E60" t="s">
+        <v>178</v>
+      </c>
+      <c r="F60" t="s">
         <v>179</v>
       </c>
-      <c r="F60" t="s">
-        <v>180</v>
-      </c>
       <c r="G60" t="s">
         <v>15</v>
       </c>
@@ -6260,7 +6257,7 @@
         <v>16</v>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J60"/>
       <c r="K60" t="s">
@@ -6275,7 +6272,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -6284,10 +6281,10 @@
         <v>57</v>
       </c>
       <c r="E61" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61" t="s">
         <v>181</v>
-      </c>
-      <c r="F61" t="s">
-        <v>182</v>
       </c>
       <c r="G61" t="s">
         <v>15</v>
@@ -6311,7 +6308,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6320,11 +6317,11 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
+        <v>182</v>
+      </c>
+      <c r="F62" t="s">
         <v>183</v>
       </c>
-      <c r="F62" t="s">
-        <v>184</v>
-      </c>
       <c r="G62" t="s">
         <v>15</v>
       </c>
@@ -6332,7 +6329,7 @@
         <v>16</v>
       </c>
       <c r="I62" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J62"/>
       <c r="K62" t="s">
@@ -6347,7 +6344,7 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -6356,11 +6353,11 @@
         <v>60</v>
       </c>
       <c r="E63" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" t="s">
         <v>185</v>
       </c>
-      <c r="F63" t="s">
-        <v>186</v>
-      </c>
       <c r="G63" t="s">
         <v>15</v>
       </c>
@@ -6368,7 +6365,7 @@
         <v>16</v>
       </c>
       <c r="I63" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J63"/>
       <c r="K63" t="s">
@@ -6383,7 +6380,7 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C64">
         <v>8</v>
@@ -6392,11 +6389,11 @@
         <v>60</v>
       </c>
       <c r="E64" t="s">
+        <v>186</v>
+      </c>
+      <c r="F64" t="s">
         <v>187</v>
       </c>
-      <c r="F64" t="s">
-        <v>188</v>
-      </c>
       <c r="G64" t="s">
         <v>15</v>
       </c>
@@ -6404,7 +6401,7 @@
         <v>16</v>
       </c>
       <c r="I64" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="J64"/>
       <c r="K64" t="s">
@@ -6419,7 +6416,7 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C65">
         <v>9</v>
@@ -6428,11 +6425,11 @@
         <v>34</v>
       </c>
       <c r="E65" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" t="s">
         <v>189</v>
       </c>
-      <c r="F65" t="s">
-        <v>190</v>
-      </c>
       <c r="G65" t="s">
         <v>15</v>
       </c>
@@ -6440,7 +6437,7 @@
         <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J65"/>
       <c r="K65" t="s">
@@ -6455,7 +6452,7 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C66">
         <v>13</v>
@@ -6464,11 +6461,11 @@
         <v>57</v>
       </c>
       <c r="E66" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66" t="s">
         <v>191</v>
       </c>
-      <c r="F66" t="s">
-        <v>192</v>
-      </c>
       <c r="G66" t="s">
         <v>15</v>
       </c>
@@ -6476,7 +6473,7 @@
         <v>16</v>
       </c>
       <c r="I66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J66"/>
       <c r="K66" t="s">
@@ -6491,7 +6488,7 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C67">
         <v>17</v>
@@ -6500,11 +6497,11 @@
         <v>93</v>
       </c>
       <c r="E67" t="s">
+        <v>192</v>
+      </c>
+      <c r="F67" t="s">
         <v>193</v>
       </c>
-      <c r="F67" t="s">
-        <v>194</v>
-      </c>
       <c r="G67" t="s">
         <v>15</v>
       </c>
@@ -6512,7 +6509,7 @@
         <v>16</v>
       </c>
       <c r="I67" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J67"/>
       <c r="K67" t="s">
@@ -6527,7 +6524,7 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C68">
         <v>17</v>
@@ -6536,19 +6533,19 @@
         <v>93</v>
       </c>
       <c r="E68" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" t="s">
         <v>195</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s">
         <v>196</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" t="s">
-        <v>197</v>
       </c>
       <c r="J68"/>
       <c r="K68" t="s">
@@ -6563,7 +6560,7 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C69">
         <v>20</v>
@@ -6572,10 +6569,10 @@
         <v>57</v>
       </c>
       <c r="E69" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" t="s">
         <v>198</v>
-      </c>
-      <c r="F69" t="s">
-        <v>199</v>
       </c>
       <c r="G69" t="s">
         <v>15</v>
@@ -6599,7 +6596,7 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C70">
         <v>20</v>
@@ -6608,10 +6605,10 @@
         <v>57</v>
       </c>
       <c r="E70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F70" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G70" t="s">
         <v>15</v>
@@ -6620,7 +6617,7 @@
         <v>16</v>
       </c>
       <c r="I70" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J70"/>
       <c r="K70" t="s">
@@ -6635,7 +6632,7 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6644,11 +6641,11 @@
         <v>60</v>
       </c>
       <c r="E71" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" t="s">
         <v>202</v>
       </c>
-      <c r="F71" t="s">
-        <v>203</v>
-      </c>
       <c r="G71" t="s">
         <v>15</v>
       </c>
@@ -6656,7 +6653,7 @@
         <v>16</v>
       </c>
       <c r="I71" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
@@ -6671,7 +6668,7 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -6680,11 +6677,11 @@
         <v>60</v>
       </c>
       <c r="E72" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" t="s">
         <v>204</v>
       </c>
-      <c r="F72" t="s">
-        <v>205</v>
-      </c>
       <c r="G72" t="s">
         <v>15</v>
       </c>
@@ -6692,7 +6689,7 @@
         <v>16</v>
       </c>
       <c r="I72" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
@@ -6707,7 +6704,7 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C73">
         <v>9</v>
@@ -6716,10 +6713,10 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
+        <v>205</v>
+      </c>
+      <c r="F73" t="s">
         <v>206</v>
-      </c>
-      <c r="F73" t="s">
-        <v>207</v>
       </c>
       <c r="G73" t="s">
         <v>15</v>
@@ -6743,7 +6740,7 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C74">
         <v>13</v>
@@ -6752,11 +6749,11 @@
         <v>93</v>
       </c>
       <c r="E74" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74" t="s">
         <v>208</v>
       </c>
-      <c r="F74" t="s">
-        <v>209</v>
-      </c>
       <c r="G74" t="s">
         <v>15</v>
       </c>
@@ -6764,7 +6761,7 @@
         <v>16</v>
       </c>
       <c r="I74" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="s">
@@ -6779,7 +6776,7 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C75">
         <v>13</v>
@@ -6788,11 +6785,11 @@
         <v>34</v>
       </c>
       <c r="E75" t="s">
+        <v>209</v>
+      </c>
+      <c r="F75" t="s">
         <v>210</v>
       </c>
-      <c r="F75" t="s">
-        <v>211</v>
-      </c>
       <c r="G75" t="s">
         <v>15</v>
       </c>
@@ -6800,7 +6797,7 @@
         <v>16</v>
       </c>
       <c r="I75" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="s">
@@ -6815,7 +6812,7 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C76">
         <v>13</v>
@@ -6824,11 +6821,11 @@
         <v>57</v>
       </c>
       <c r="E76" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" t="s">
         <v>212</v>
       </c>
-      <c r="F76" t="s">
-        <v>213</v>
-      </c>
       <c r="G76" t="s">
         <v>15</v>
       </c>
@@ -6836,7 +6833,7 @@
         <v>16</v>
       </c>
       <c r="I76" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="s">
@@ -6851,7 +6848,7 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C77">
         <v>14</v>
@@ -6860,11 +6857,11 @@
         <v>38</v>
       </c>
       <c r="E77" t="s">
+        <v>213</v>
+      </c>
+      <c r="F77" t="s">
         <v>214</v>
       </c>
-      <c r="F77" t="s">
-        <v>215</v>
-      </c>
       <c r="G77" t="s">
         <v>15</v>
       </c>
@@ -6872,7 +6869,7 @@
         <v>16</v>
       </c>
       <c r="I77" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="s">
@@ -6887,7 +6884,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C78">
         <v>14</v>
@@ -6896,11 +6893,11 @@
         <v>51</v>
       </c>
       <c r="E78" t="s">
+        <v>215</v>
+      </c>
+      <c r="F78" t="s">
         <v>216</v>
       </c>
-      <c r="F78" t="s">
-        <v>217</v>
-      </c>
       <c r="G78" t="s">
         <v>15</v>
       </c>
@@ -6908,7 +6905,7 @@
         <v>16</v>
       </c>
       <c r="I78" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="s">
@@ -6923,7 +6920,7 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C79">
         <v>15</v>
@@ -6932,11 +6929,11 @@
         <v>38</v>
       </c>
       <c r="E79" t="s">
+        <v>217</v>
+      </c>
+      <c r="F79" t="s">
         <v>218</v>
       </c>
-      <c r="F79" t="s">
-        <v>219</v>
-      </c>
       <c r="G79" t="s">
         <v>15</v>
       </c>
@@ -6944,7 +6941,7 @@
         <v>16</v>
       </c>
       <c r="I79" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="s">
@@ -6959,7 +6956,7 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C80">
         <v>15</v>
@@ -6968,11 +6965,11 @@
         <v>60</v>
       </c>
       <c r="E80" t="s">
+        <v>219</v>
+      </c>
+      <c r="F80" t="s">
         <v>220</v>
       </c>
-      <c r="F80" t="s">
-        <v>221</v>
-      </c>
       <c r="G80" t="s">
         <v>15</v>
       </c>
@@ -6980,7 +6977,7 @@
         <v>16</v>
       </c>
       <c r="I80" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J80"/>
       <c r="K80" t="s">
@@ -6995,7 +6992,7 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C81">
         <v>16</v>
@@ -7004,11 +7001,11 @@
         <v>60</v>
       </c>
       <c r="E81" t="s">
+        <v>221</v>
+      </c>
+      <c r="F81" t="s">
         <v>222</v>
       </c>
-      <c r="F81" t="s">
-        <v>223</v>
-      </c>
       <c r="G81" t="s">
         <v>15</v>
       </c>
@@ -7016,7 +7013,7 @@
         <v>16</v>
       </c>
       <c r="I81" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="J81"/>
       <c r="K81" t="s">
@@ -7031,7 +7028,7 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C82">
         <v>19</v>
@@ -7040,19 +7037,19 @@
         <v>76</v>
       </c>
       <c r="E82" t="s">
+        <v>223</v>
+      </c>
+      <c r="F82" t="s">
         <v>224</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" t="s">
         <v>225</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" t="s">
-        <v>226</v>
       </c>
       <c r="J82"/>
       <c r="K82" t="s">
@@ -7067,7 +7064,7 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C83">
         <v>20</v>
@@ -7076,11 +7073,11 @@
         <v>93</v>
       </c>
       <c r="E83" t="s">
+        <v>226</v>
+      </c>
+      <c r="F83" t="s">
         <v>227</v>
       </c>
-      <c r="F83" t="s">
-        <v>228</v>
-      </c>
       <c r="G83" t="s">
         <v>15</v>
       </c>
@@ -7088,7 +7085,7 @@
         <v>16</v>
       </c>
       <c r="I83" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="s">
@@ -7103,7 +7100,7 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -7112,11 +7109,11 @@
         <v>60</v>
       </c>
       <c r="E84" t="s">
+        <v>229</v>
+      </c>
+      <c r="F84" t="s">
         <v>230</v>
       </c>
-      <c r="F84" t="s">
-        <v>231</v>
-      </c>
       <c r="G84" t="s">
         <v>15</v>
       </c>
@@ -7124,7 +7121,7 @@
         <v>16</v>
       </c>
       <c r="I84" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="J84"/>
       <c r="K84" t="s">
@@ -7139,7 +7136,7 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7148,11 +7145,11 @@
         <v>60</v>
       </c>
       <c r="E85" t="s">
+        <v>231</v>
+      </c>
+      <c r="F85" t="s">
         <v>232</v>
       </c>
-      <c r="F85" t="s">
-        <v>233</v>
-      </c>
       <c r="G85" t="s">
         <v>15</v>
       </c>
@@ -7160,7 +7157,7 @@
         <v>16</v>
       </c>
       <c r="I85" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J85"/>
       <c r="K85" t="s">
@@ -7175,7 +7172,7 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -7184,11 +7181,11 @@
         <v>69</v>
       </c>
       <c r="E86" t="s">
+        <v>233</v>
+      </c>
+      <c r="F86" t="s">
         <v>234</v>
       </c>
-      <c r="F86" t="s">
-        <v>235</v>
-      </c>
       <c r="G86" t="s">
         <v>15</v>
       </c>
@@ -7196,7 +7193,7 @@
         <v>16</v>
       </c>
       <c r="I86" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J86"/>
       <c r="K86" t="s">
@@ -7211,7 +7208,7 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C87">
         <v>16</v>
@@ -7220,11 +7217,11 @@
         <v>51</v>
       </c>
       <c r="E87" t="s">
+        <v>235</v>
+      </c>
+      <c r="F87" t="s">
         <v>236</v>
       </c>
-      <c r="F87" t="s">
-        <v>237</v>
-      </c>
       <c r="G87" t="s">
         <v>15</v>
       </c>
@@ -7232,7 +7229,7 @@
         <v>16</v>
       </c>
       <c r="I87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J87"/>
       <c r="K87" t="s">
@@ -7256,11 +7253,11 @@
         <v>69</v>
       </c>
       <c r="E88" t="s">
+        <v>237</v>
+      </c>
+      <c r="F88" t="s">
         <v>238</v>
       </c>
-      <c r="F88" t="s">
-        <v>239</v>
-      </c>
       <c r="G88" t="s">
         <v>15</v>
       </c>
@@ -7268,7 +7265,7 @@
         <v>16</v>
       </c>
       <c r="I88" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J88"/>
       <c r="K88" t="s">
@@ -7292,11 +7289,11 @@
         <v>57</v>
       </c>
       <c r="E89" t="s">
+        <v>239</v>
+      </c>
+      <c r="F89" t="s">
         <v>240</v>
       </c>
-      <c r="F89" t="s">
-        <v>241</v>
-      </c>
       <c r="G89" t="s">
         <v>15</v>
       </c>
@@ -7304,7 +7301,7 @@
         <v>16</v>
       </c>
       <c r="I89" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J89"/>
       <c r="K89" t="s">
@@ -7328,11 +7325,11 @@
         <v>60</v>
       </c>
       <c r="E90" t="s">
+        <v>241</v>
+      </c>
+      <c r="F90" t="s">
         <v>242</v>
       </c>
-      <c r="F90" t="s">
-        <v>243</v>
-      </c>
       <c r="G90" t="s">
         <v>15</v>
       </c>
@@ -7340,7 +7337,7 @@
         <v>16</v>
       </c>
       <c r="I90" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J90"/>
       <c r="K90" t="s">
@@ -7364,10 +7361,10 @@
         <v>76</v>
       </c>
       <c r="E91" t="s">
+        <v>243</v>
+      </c>
+      <c r="F91" t="s">
         <v>244</v>
-      </c>
-      <c r="F91" t="s">
-        <v>245</v>
       </c>
       <c r="G91" t="s">
         <v>15</v>
@@ -7400,11 +7397,11 @@
         <v>93</v>
       </c>
       <c r="E92" t="s">
+        <v>245</v>
+      </c>
+      <c r="F92" t="s">
         <v>246</v>
       </c>
-      <c r="F92" t="s">
-        <v>247</v>
-      </c>
       <c r="G92" t="s">
         <v>15</v>
       </c>
@@ -7412,7 +7409,7 @@
         <v>16</v>
       </c>
       <c r="I92" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J92"/>
       <c r="K92" t="s">
@@ -7436,10 +7433,10 @@
         <v>34</v>
       </c>
       <c r="E93" t="s">
+        <v>247</v>
+      </c>
+      <c r="F93" t="s">
         <v>248</v>
-      </c>
-      <c r="F93" t="s">
-        <v>249</v>
       </c>
       <c r="G93" t="s">
         <v>15</v>
@@ -7472,11 +7469,11 @@
         <v>34</v>
       </c>
       <c r="E94" t="s">
+        <v>249</v>
+      </c>
+      <c r="F94" t="s">
         <v>250</v>
       </c>
-      <c r="F94" t="s">
-        <v>251</v>
-      </c>
       <c r="G94" t="s">
         <v>15</v>
       </c>
@@ -7484,7 +7481,7 @@
         <v>16</v>
       </c>
       <c r="I94" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J94"/>
       <c r="K94" t="s">
@@ -7508,11 +7505,11 @@
         <v>57</v>
       </c>
       <c r="E95" t="s">
+        <v>251</v>
+      </c>
+      <c r="F95" t="s">
         <v>252</v>
       </c>
-      <c r="F95" t="s">
-        <v>253</v>
-      </c>
       <c r="G95" t="s">
         <v>15</v>
       </c>
@@ -7520,7 +7517,7 @@
         <v>16</v>
       </c>
       <c r="I95" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J95"/>
       <c r="K95" t="s">
@@ -7544,11 +7541,11 @@
         <v>93</v>
       </c>
       <c r="E96" t="s">
+        <v>253</v>
+      </c>
+      <c r="F96" t="s">
         <v>254</v>
       </c>
-      <c r="F96" t="s">
-        <v>255</v>
-      </c>
       <c r="G96" t="s">
         <v>15</v>
       </c>
@@ -7556,7 +7553,7 @@
         <v>16</v>
       </c>
       <c r="I96" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J96"/>
       <c r="K96" t="s">
@@ -7580,11 +7577,11 @@
         <v>93</v>
       </c>
       <c r="E97" t="s">
+        <v>255</v>
+      </c>
+      <c r="F97" t="s">
         <v>256</v>
       </c>
-      <c r="F97" t="s">
-        <v>257</v>
-      </c>
       <c r="G97" t="s">
         <v>15</v>
       </c>
@@ -7592,7 +7589,7 @@
         <v>16</v>
       </c>
       <c r="I97" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J97"/>
       <c r="K97" t="s">
@@ -7616,11 +7613,11 @@
         <v>51</v>
       </c>
       <c r="E98" t="s">
+        <v>257</v>
+      </c>
+      <c r="F98" t="s">
         <v>258</v>
       </c>
-      <c r="F98" t="s">
-        <v>259</v>
-      </c>
       <c r="G98" t="s">
         <v>15</v>
       </c>
@@ -7628,7 +7625,7 @@
         <v>16</v>
       </c>
       <c r="I98" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J98"/>
       <c r="K98" t="s">
@@ -7652,11 +7649,11 @@
         <v>93</v>
       </c>
       <c r="E99" t="s">
+        <v>259</v>
+      </c>
+      <c r="F99" t="s">
         <v>260</v>
       </c>
-      <c r="F99" t="s">
-        <v>261</v>
-      </c>
       <c r="G99" t="s">
         <v>15</v>
       </c>
@@ -7664,7 +7661,7 @@
         <v>16</v>
       </c>
       <c r="I99" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J99"/>
       <c r="K99" t="s">
@@ -7688,10 +7685,10 @@
         <v>93</v>
       </c>
       <c r="E100" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F100" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G100" t="s">
         <v>15</v>
@@ -7700,7 +7697,7 @@
         <v>16</v>
       </c>
       <c r="I100" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="J100"/>
       <c r="K100" t="s">
@@ -7724,11 +7721,11 @@
         <v>93</v>
       </c>
       <c r="E101" t="s">
+        <v>262</v>
+      </c>
+      <c r="F101" t="s">
         <v>263</v>
       </c>
-      <c r="F101" t="s">
-        <v>264</v>
-      </c>
       <c r="G101" t="s">
         <v>15</v>
       </c>
@@ -7736,7 +7733,7 @@
         <v>16</v>
       </c>
       <c r="I101" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J101"/>
       <c r="K101" t="s">
@@ -7760,11 +7757,11 @@
         <v>69</v>
       </c>
       <c r="E102" t="s">
+        <v>264</v>
+      </c>
+      <c r="F102" t="s">
         <v>265</v>
       </c>
-      <c r="F102" t="s">
-        <v>266</v>
-      </c>
       <c r="G102" t="s">
         <v>15</v>
       </c>
@@ -7772,7 +7769,7 @@
         <v>16</v>
       </c>
       <c r="I102" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J102"/>
       <c r="K102" t="s">
@@ -7796,10 +7793,10 @@
         <v>93</v>
       </c>
       <c r="E103" t="s">
+        <v>266</v>
+      </c>
+      <c r="F103" t="s">
         <v>267</v>
-      </c>
-      <c r="F103" t="s">
-        <v>268</v>
       </c>
       <c r="G103" t="s">
         <v>15</v>
@@ -7832,11 +7829,11 @@
         <v>51</v>
       </c>
       <c r="E104" t="s">
+        <v>268</v>
+      </c>
+      <c r="F104" t="s">
         <v>269</v>
       </c>
-      <c r="F104" t="s">
-        <v>270</v>
-      </c>
       <c r="G104" t="s">
         <v>15</v>
       </c>
@@ -7844,7 +7841,7 @@
         <v>16</v>
       </c>
       <c r="I104" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J104"/>
       <c r="K104" t="s">
@@ -7868,10 +7865,10 @@
         <v>38</v>
       </c>
       <c r="E105" t="s">
+        <v>270</v>
+      </c>
+      <c r="F105" t="s">
         <v>271</v>
-      </c>
-      <c r="F105" t="s">
-        <v>272</v>
       </c>
       <c r="G105" t="s">
         <v>15</v>
@@ -7904,10 +7901,10 @@
         <v>45</v>
       </c>
       <c r="E106" t="s">
+        <v>272</v>
+      </c>
+      <c r="F106" t="s">
         <v>273</v>
-      </c>
-      <c r="F106" t="s">
-        <v>274</v>
       </c>
       <c r="G106" t="s">
         <v>15</v>
@@ -7940,11 +7937,11 @@
         <v>60</v>
       </c>
       <c r="E107" t="s">
+        <v>274</v>
+      </c>
+      <c r="F107" t="s">
         <v>275</v>
       </c>
-      <c r="F107" t="s">
-        <v>276</v>
-      </c>
       <c r="G107" t="s">
         <v>15</v>
       </c>
@@ -7952,7 +7949,7 @@
         <v>16</v>
       </c>
       <c r="I107" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J107"/>
       <c r="K107" t="s">
@@ -7976,10 +7973,10 @@
         <v>60</v>
       </c>
       <c r="E108" t="s">
+        <v>276</v>
+      </c>
+      <c r="F108" t="s">
         <v>277</v>
-      </c>
-      <c r="F108" t="s">
-        <v>278</v>
       </c>
       <c r="G108" t="s">
         <v>15</v>
@@ -8012,19 +8009,19 @@
         <v>76</v>
       </c>
       <c r="E109" t="s">
+        <v>278</v>
+      </c>
+      <c r="F109" t="s">
         <v>279</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" t="s">
         <v>280</v>
-      </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
-      <c r="H109" t="s">
-        <v>16</v>
-      </c>
-      <c r="I109" t="s">
-        <v>281</v>
       </c>
       <c r="J109"/>
       <c r="K109" t="s">
@@ -8048,11 +8045,11 @@
         <v>45</v>
       </c>
       <c r="E110" t="s">
+        <v>281</v>
+      </c>
+      <c r="F110" t="s">
         <v>282</v>
       </c>
-      <c r="F110" t="s">
-        <v>283</v>
-      </c>
       <c r="G110" t="s">
         <v>15</v>
       </c>
@@ -8060,7 +8057,7 @@
         <v>16</v>
       </c>
       <c r="I110" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J110"/>
       <c r="K110" t="s">
@@ -8084,11 +8081,11 @@
         <v>34</v>
       </c>
       <c r="E111" t="s">
+        <v>283</v>
+      </c>
+      <c r="F111" t="s">
         <v>284</v>
       </c>
-      <c r="F111" t="s">
-        <v>285</v>
-      </c>
       <c r="G111" t="s">
         <v>15</v>
       </c>
@@ -8096,7 +8093,7 @@
         <v>16</v>
       </c>
       <c r="I111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J111"/>
       <c r="K111" t="s">
@@ -8120,11 +8117,11 @@
         <v>60</v>
       </c>
       <c r="E112" t="s">
+        <v>285</v>
+      </c>
+      <c r="F112" t="s">
         <v>286</v>
       </c>
-      <c r="F112" t="s">
-        <v>287</v>
-      </c>
       <c r="G112" t="s">
         <v>15</v>
       </c>
@@ -8132,7 +8129,7 @@
         <v>16</v>
       </c>
       <c r="I112" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J112"/>
       <c r="K112" t="s">
@@ -8147,7 +8144,7 @@
         <v>12</v>
       </c>
       <c r="B113" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8156,11 +8153,11 @@
         <v>38</v>
       </c>
       <c r="E113" t="s">
+        <v>288</v>
+      </c>
+      <c r="F113" t="s">
         <v>289</v>
       </c>
-      <c r="F113" t="s">
-        <v>290</v>
-      </c>
       <c r="G113" t="s">
         <v>15</v>
       </c>
@@ -8168,7 +8165,7 @@
         <v>16</v>
       </c>
       <c r="I113" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J113"/>
       <c r="K113" t="s">
@@ -8183,7 +8180,7 @@
         <v>12</v>
       </c>
       <c r="B114" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -8192,11 +8189,11 @@
         <v>60</v>
       </c>
       <c r="E114" t="s">
+        <v>290</v>
+      </c>
+      <c r="F114" t="s">
         <v>291</v>
       </c>
-      <c r="F114" t="s">
-        <v>292</v>
-      </c>
       <c r="G114" t="s">
         <v>15</v>
       </c>
@@ -8204,7 +8201,7 @@
         <v>16</v>
       </c>
       <c r="I114" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J114"/>
       <c r="K114" t="s">
@@ -8219,7 +8216,7 @@
         <v>12</v>
       </c>
       <c r="B115" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -8228,10 +8225,10 @@
         <v>60</v>
       </c>
       <c r="E115" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F115" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G115" t="s">
         <v>15</v>
@@ -8240,7 +8237,7 @@
         <v>16</v>
       </c>
       <c r="I115" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="J115"/>
       <c r="K115" t="s">
@@ -8255,7 +8252,7 @@
         <v>12</v>
       </c>
       <c r="B116" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C116">
         <v>5</v>
@@ -8264,11 +8261,11 @@
         <v>57</v>
       </c>
       <c r="E116" t="s">
+        <v>293</v>
+      </c>
+      <c r="F116" t="s">
         <v>294</v>
       </c>
-      <c r="F116" t="s">
-        <v>295</v>
-      </c>
       <c r="G116" t="s">
         <v>15</v>
       </c>
@@ -8276,7 +8273,7 @@
         <v>16</v>
       </c>
       <c r="I116" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J116"/>
       <c r="K116" t="s">
@@ -8291,7 +8288,7 @@
         <v>12</v>
       </c>
       <c r="B117" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C117">
         <v>9</v>
@@ -8300,11 +8297,11 @@
         <v>57</v>
       </c>
       <c r="E117" t="s">
+        <v>295</v>
+      </c>
+      <c r="F117" t="s">
         <v>296</v>
       </c>
-      <c r="F117" t="s">
-        <v>297</v>
-      </c>
       <c r="G117" t="s">
         <v>15</v>
       </c>
@@ -8312,7 +8309,7 @@
         <v>16</v>
       </c>
       <c r="I117" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J117"/>
       <c r="K117" t="s">
@@ -8327,7 +8324,7 @@
         <v>12</v>
       </c>
       <c r="B118" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C118">
         <v>19</v>
@@ -8336,11 +8333,11 @@
         <v>45</v>
       </c>
       <c r="E118" t="s">
+        <v>297</v>
+      </c>
+      <c r="F118" t="s">
         <v>298</v>
       </c>
-      <c r="F118" t="s">
-        <v>299</v>
-      </c>
       <c r="G118" t="s">
         <v>15</v>
       </c>
@@ -8348,7 +8345,7 @@
         <v>16</v>
       </c>
       <c r="I118" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J118"/>
       <c r="K118" t="s">
@@ -8363,7 +8360,7 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C119">
         <v>21</v>
@@ -8372,11 +8369,11 @@
         <v>93</v>
       </c>
       <c r="E119" t="s">
+        <v>299</v>
+      </c>
+      <c r="F119" t="s">
         <v>300</v>
       </c>
-      <c r="F119" t="s">
-        <v>301</v>
-      </c>
       <c r="G119" t="s">
         <v>15</v>
       </c>
@@ -8384,7 +8381,7 @@
         <v>16</v>
       </c>
       <c r="I119" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J119"/>
       <c r="K119" t="s">
@@ -8399,7 +8396,7 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C120">
         <v>21</v>
@@ -8408,11 +8405,11 @@
         <v>34</v>
       </c>
       <c r="E120" t="s">
+        <v>301</v>
+      </c>
+      <c r="F120" t="s">
         <v>302</v>
       </c>
-      <c r="F120" t="s">
-        <v>303</v>
-      </c>
       <c r="G120" t="s">
         <v>15</v>
       </c>
@@ -8420,7 +8417,7 @@
         <v>16</v>
       </c>
       <c r="I120" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J120"/>
       <c r="K120" t="s">
@@ -8435,7 +8432,7 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -8444,11 +8441,11 @@
         <v>45</v>
       </c>
       <c r="E121" t="s">
+        <v>304</v>
+      </c>
+      <c r="F121" t="s">
         <v>305</v>
       </c>
-      <c r="F121" t="s">
-        <v>306</v>
-      </c>
       <c r="G121" t="s">
         <v>15</v>
       </c>
@@ -8456,7 +8453,7 @@
         <v>16</v>
       </c>
       <c r="I121" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J121"/>
       <c r="K121" t="s">
@@ -8471,7 +8468,7 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C122">
         <v>3</v>
@@ -8480,11 +8477,11 @@
         <v>38</v>
       </c>
       <c r="E122" t="s">
+        <v>306</v>
+      </c>
+      <c r="F122" t="s">
         <v>307</v>
       </c>
-      <c r="F122" t="s">
-        <v>308</v>
-      </c>
       <c r="G122" t="s">
         <v>15</v>
       </c>
@@ -8492,7 +8489,7 @@
         <v>16</v>
       </c>
       <c r="I122" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J122"/>
       <c r="K122" t="s">
@@ -8507,7 +8504,7 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C123">
         <v>5</v>
@@ -8516,10 +8513,10 @@
         <v>34</v>
       </c>
       <c r="E123" t="s">
+        <v>308</v>
+      </c>
+      <c r="F123" t="s">
         <v>309</v>
-      </c>
-      <c r="F123" t="s">
-        <v>310</v>
       </c>
       <c r="G123" t="s">
         <v>15</v>
@@ -8543,7 +8540,7 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C124">
         <v>7</v>
@@ -8552,11 +8549,11 @@
         <v>34</v>
       </c>
       <c r="E124" t="s">
+        <v>310</v>
+      </c>
+      <c r="F124" t="s">
         <v>311</v>
       </c>
-      <c r="F124" t="s">
-        <v>312</v>
-      </c>
       <c r="G124" t="s">
         <v>15</v>
       </c>
@@ -8564,7 +8561,7 @@
         <v>16</v>
       </c>
       <c r="I124" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J124"/>
       <c r="K124" t="s">
@@ -8579,7 +8576,7 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C125">
         <v>11</v>
@@ -8588,11 +8585,11 @@
         <v>76</v>
       </c>
       <c r="E125" t="s">
+        <v>312</v>
+      </c>
+      <c r="F125" t="s">
         <v>313</v>
       </c>
-      <c r="F125" t="s">
-        <v>314</v>
-      </c>
       <c r="G125" t="s">
         <v>15</v>
       </c>
@@ -8600,7 +8597,7 @@
         <v>16</v>
       </c>
       <c r="I125" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J125"/>
       <c r="K125" t="s">
@@ -8615,7 +8612,7 @@
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C126">
         <v>12</v>
@@ -8624,11 +8621,11 @@
         <v>34</v>
       </c>
       <c r="E126" t="s">
+        <v>314</v>
+      </c>
+      <c r="F126" t="s">
         <v>315</v>
       </c>
-      <c r="F126" t="s">
-        <v>316</v>
-      </c>
       <c r="G126" t="s">
         <v>15</v>
       </c>
@@ -8636,7 +8633,7 @@
         <v>16</v>
       </c>
       <c r="I126" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J126"/>
       <c r="K126" t="s">
@@ -8651,7 +8648,7 @@
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C127">
         <v>13</v>
@@ -8660,10 +8657,10 @@
         <v>45</v>
       </c>
       <c r="E127" t="s">
+        <v>316</v>
+      </c>
+      <c r="F127" t="s">
         <v>317</v>
-      </c>
-      <c r="F127" t="s">
-        <v>318</v>
       </c>
       <c r="G127" t="s">
         <v>15</v>
@@ -8687,7 +8684,7 @@
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C128">
         <v>15</v>
@@ -8696,11 +8693,11 @@
         <v>45</v>
       </c>
       <c r="E128" t="s">
+        <v>318</v>
+      </c>
+      <c r="F128" t="s">
         <v>319</v>
       </c>
-      <c r="F128" t="s">
-        <v>320</v>
-      </c>
       <c r="G128" t="s">
         <v>15</v>
       </c>
@@ -8708,7 +8705,7 @@
         <v>16</v>
       </c>
       <c r="I128" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J128"/>
       <c r="K128" t="s">
@@ -8723,7 +8720,7 @@
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C129">
         <v>18</v>
@@ -8732,11 +8729,11 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
+        <v>320</v>
+      </c>
+      <c r="F129" t="s">
         <v>321</v>
       </c>
-      <c r="F129" t="s">
-        <v>322</v>
-      </c>
       <c r="G129" t="s">
         <v>15</v>
       </c>
@@ -8744,7 +8741,7 @@
         <v>16</v>
       </c>
       <c r="I129" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J129"/>
       <c r="K129" t="s">
@@ -8759,7 +8756,7 @@
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C130">
         <v>18</v>
@@ -8768,10 +8765,10 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F130" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G130" t="s">
         <v>15</v>
@@ -8795,7 +8792,7 @@
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C131">
         <v>20</v>
@@ -8804,11 +8801,11 @@
         <v>38</v>
       </c>
       <c r="E131" t="s">
+        <v>323</v>
+      </c>
+      <c r="F131" t="s">
         <v>324</v>
       </c>
-      <c r="F131" t="s">
-        <v>325</v>
-      </c>
       <c r="G131" t="s">
         <v>15</v>
       </c>
@@ -8816,7 +8813,7 @@
         <v>16</v>
       </c>
       <c r="I131" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J131"/>
       <c r="K131" t="s">
@@ -8831,7 +8828,7 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C132">
         <v>20</v>
@@ -8840,11 +8837,11 @@
         <v>57</v>
       </c>
       <c r="E132" t="s">
+        <v>325</v>
+      </c>
+      <c r="F132" t="s">
         <v>326</v>
       </c>
-      <c r="F132" t="s">
-        <v>327</v>
-      </c>
       <c r="G132" t="s">
         <v>15</v>
       </c>
@@ -8852,7 +8849,7 @@
         <v>16</v>
       </c>
       <c r="I132" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J132"/>
       <c r="K132" t="s">
@@ -8867,7 +8864,7 @@
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C133">
         <v>20</v>
@@ -8876,11 +8873,11 @@
         <v>57</v>
       </c>
       <c r="E133" t="s">
+        <v>327</v>
+      </c>
+      <c r="F133" t="s">
         <v>328</v>
       </c>
-      <c r="F133" t="s">
-        <v>329</v>
-      </c>
       <c r="G133" t="s">
         <v>15</v>
       </c>
@@ -8888,7 +8885,7 @@
         <v>16</v>
       </c>
       <c r="I133" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J133"/>
       <c r="K133" t="s">
@@ -8903,7 +8900,7 @@
         <v>12</v>
       </c>
       <c r="B134" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C134">
         <v>21</v>
@@ -8912,11 +8909,11 @@
         <v>57</v>
       </c>
       <c r="E134" t="s">
+        <v>329</v>
+      </c>
+      <c r="F134" t="s">
         <v>330</v>
       </c>
-      <c r="F134" t="s">
-        <v>331</v>
-      </c>
       <c r="G134" t="s">
         <v>15</v>
       </c>
@@ -8924,7 +8921,7 @@
         <v>16</v>
       </c>
       <c r="I134" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J134"/>
       <c r="K134" t="s">
@@ -8939,7 +8936,7 @@
         <v>12</v>
       </c>
       <c r="B135" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C135">
         <v>21</v>
@@ -8948,10 +8945,10 @@
         <v>69</v>
       </c>
       <c r="E135" t="s">
+        <v>331</v>
+      </c>
+      <c r="F135" t="s">
         <v>332</v>
-      </c>
-      <c r="F135" t="s">
-        <v>333</v>
       </c>
       <c r="G135" t="s">
         <v>15</v>
@@ -8975,7 +8972,7 @@
         <v>12</v>
       </c>
       <c r="B136" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C136">
         <v>6</v>
@@ -8984,11 +8981,11 @@
         <v>93</v>
       </c>
       <c r="E136" t="s">
+        <v>334</v>
+      </c>
+      <c r="F136" t="s">
         <v>335</v>
       </c>
-      <c r="F136" t="s">
-        <v>336</v>
-      </c>
       <c r="G136" t="s">
         <v>15</v>
       </c>
@@ -8996,7 +8993,7 @@
         <v>16</v>
       </c>
       <c r="I136" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J136"/>
       <c r="K136" t="s">
@@ -9011,7 +9008,7 @@
         <v>12</v>
       </c>
       <c r="B137" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C137">
         <v>8</v>
@@ -9020,11 +9017,11 @@
         <v>60</v>
       </c>
       <c r="E137" t="s">
+        <v>336</v>
+      </c>
+      <c r="F137" t="s">
         <v>337</v>
       </c>
-      <c r="F137" t="s">
-        <v>338</v>
-      </c>
       <c r="G137" t="s">
         <v>15</v>
       </c>
@@ -9032,7 +9029,7 @@
         <v>16</v>
       </c>
       <c r="I137" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J137"/>
       <c r="K137" t="s">
@@ -9047,7 +9044,7 @@
         <v>12</v>
       </c>
       <c r="B138" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C138">
         <v>13</v>
@@ -9056,11 +9053,11 @@
         <v>34</v>
       </c>
       <c r="E138" t="s">
+        <v>338</v>
+      </c>
+      <c r="F138" t="s">
         <v>339</v>
       </c>
-      <c r="F138" t="s">
-        <v>340</v>
-      </c>
       <c r="G138" t="s">
         <v>15</v>
       </c>
@@ -9068,7 +9065,7 @@
         <v>16</v>
       </c>
       <c r="I138" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J138"/>
       <c r="K138" t="s">
@@ -9083,7 +9080,7 @@
         <v>12</v>
       </c>
       <c r="B139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C139">
         <v>13</v>
@@ -9092,11 +9089,11 @@
         <v>76</v>
       </c>
       <c r="E139" t="s">
+        <v>340</v>
+      </c>
+      <c r="F139" t="s">
         <v>341</v>
       </c>
-      <c r="F139" t="s">
-        <v>342</v>
-      </c>
       <c r="G139" t="s">
         <v>15</v>
       </c>
@@ -9104,7 +9101,7 @@
         <v>16</v>
       </c>
       <c r="I139" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J139"/>
       <c r="K139" t="s">
@@ -9119,7 +9116,7 @@
         <v>12</v>
       </c>
       <c r="B140" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C140">
         <v>14</v>
@@ -9128,11 +9125,11 @@
         <v>93</v>
       </c>
       <c r="E140" t="s">
+        <v>342</v>
+      </c>
+      <c r="F140" t="s">
         <v>343</v>
       </c>
-      <c r="F140" t="s">
-        <v>344</v>
-      </c>
       <c r="G140" t="s">
         <v>15</v>
       </c>
@@ -9140,7 +9137,7 @@
         <v>16</v>
       </c>
       <c r="I140" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J140"/>
       <c r="K140" t="s">
@@ -9155,7 +9152,7 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C141">
         <v>14</v>
@@ -9164,11 +9161,11 @@
         <v>51</v>
       </c>
       <c r="E141" t="s">
+        <v>344</v>
+      </c>
+      <c r="F141" t="s">
         <v>345</v>
       </c>
-      <c r="F141" t="s">
-        <v>346</v>
-      </c>
       <c r="G141" t="s">
         <v>15</v>
       </c>
@@ -9176,7 +9173,7 @@
         <v>16</v>
       </c>
       <c r="I141" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J141"/>
       <c r="K141" t="s">
@@ -9191,7 +9188,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C142">
         <v>14</v>
@@ -9200,11 +9197,11 @@
         <v>57</v>
       </c>
       <c r="E142" t="s">
+        <v>346</v>
+      </c>
+      <c r="F142" t="s">
         <v>347</v>
       </c>
-      <c r="F142" t="s">
-        <v>348</v>
-      </c>
       <c r="G142" t="s">
         <v>15</v>
       </c>
@@ -9212,7 +9209,7 @@
         <v>16</v>
       </c>
       <c r="I142" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J142"/>
       <c r="K142" t="s">
@@ -9227,7 +9224,7 @@
         <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C143">
         <v>14</v>
@@ -9236,11 +9233,11 @@
         <v>60</v>
       </c>
       <c r="E143" t="s">
+        <v>348</v>
+      </c>
+      <c r="F143" t="s">
         <v>349</v>
       </c>
-      <c r="F143" t="s">
-        <v>350</v>
-      </c>
       <c r="G143" t="s">
         <v>15</v>
       </c>
@@ -9248,7 +9245,7 @@
         <v>16</v>
       </c>
       <c r="I143" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J143"/>
       <c r="K143" t="s">
@@ -9263,7 +9260,7 @@
         <v>12</v>
       </c>
       <c r="B144" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C144">
         <v>16</v>
@@ -9272,11 +9269,11 @@
         <v>93</v>
       </c>
       <c r="E144" t="s">
+        <v>350</v>
+      </c>
+      <c r="F144" t="s">
         <v>351</v>
       </c>
-      <c r="F144" t="s">
-        <v>352</v>
-      </c>
       <c r="G144" t="s">
         <v>15</v>
       </c>
@@ -9284,7 +9281,7 @@
         <v>16</v>
       </c>
       <c r="I144" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J144"/>
       <c r="K144" t="s">
@@ -9299,7 +9296,7 @@
         <v>12</v>
       </c>
       <c r="B145" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C145">
         <v>16</v>
@@ -9308,11 +9305,11 @@
         <v>38</v>
       </c>
       <c r="E145" t="s">
+        <v>352</v>
+      </c>
+      <c r="F145" t="s">
         <v>353</v>
       </c>
-      <c r="F145" t="s">
-        <v>354</v>
-      </c>
       <c r="G145" t="s">
         <v>15</v>
       </c>
@@ -9320,7 +9317,7 @@
         <v>16</v>
       </c>
       <c r="I145" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J145"/>
       <c r="K145" t="s">
@@ -9335,7 +9332,7 @@
         <v>12</v>
       </c>
       <c r="B146" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C146">
         <v>16</v>
@@ -9344,10 +9341,10 @@
         <v>45</v>
       </c>
       <c r="E146" t="s">
+        <v>354</v>
+      </c>
+      <c r="F146" t="s">
         <v>355</v>
-      </c>
-      <c r="F146" t="s">
-        <v>356</v>
       </c>
       <c r="G146" t="s">
         <v>15</v>
@@ -9371,7 +9368,7 @@
         <v>12</v>
       </c>
       <c r="B147" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C147">
         <v>16</v>
@@ -9380,11 +9377,11 @@
         <v>57</v>
       </c>
       <c r="E147" t="s">
+        <v>356</v>
+      </c>
+      <c r="F147" t="s">
         <v>357</v>
       </c>
-      <c r="F147" t="s">
-        <v>358</v>
-      </c>
       <c r="G147" t="s">
         <v>15</v>
       </c>
@@ -9392,7 +9389,7 @@
         <v>16</v>
       </c>
       <c r="I147" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J147"/>
       <c r="K147" t="s">
@@ -9407,7 +9404,7 @@
         <v>12</v>
       </c>
       <c r="B148" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C148">
         <v>16</v>
@@ -9416,11 +9413,11 @@
         <v>57</v>
       </c>
       <c r="E148" t="s">
+        <v>358</v>
+      </c>
+      <c r="F148" t="s">
         <v>359</v>
       </c>
-      <c r="F148" t="s">
-        <v>360</v>
-      </c>
       <c r="G148" t="s">
         <v>15</v>
       </c>
@@ -9428,7 +9425,7 @@
         <v>16</v>
       </c>
       <c r="I148" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J148"/>
       <c r="K148" t="s">
@@ -9443,7 +9440,7 @@
         <v>12</v>
       </c>
       <c r="B149" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C149">
         <v>17</v>
@@ -9452,11 +9449,11 @@
         <v>57</v>
       </c>
       <c r="E149" t="s">
+        <v>360</v>
+      </c>
+      <c r="F149" t="s">
         <v>361</v>
       </c>
-      <c r="F149" t="s">
-        <v>362</v>
-      </c>
       <c r="G149" t="s">
         <v>15</v>
       </c>
@@ -9464,7 +9461,7 @@
         <v>16</v>
       </c>
       <c r="I149" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J149"/>
       <c r="K149" t="s">
@@ -9479,7 +9476,7 @@
         <v>12</v>
       </c>
       <c r="B150" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C150">
         <v>18</v>
@@ -9488,11 +9485,11 @@
         <v>34</v>
       </c>
       <c r="E150" t="s">
+        <v>362</v>
+      </c>
+      <c r="F150" t="s">
         <v>363</v>
       </c>
-      <c r="F150" t="s">
-        <v>364</v>
-      </c>
       <c r="G150" t="s">
         <v>15</v>
       </c>
@@ -9500,7 +9497,7 @@
         <v>16</v>
       </c>
       <c r="I150" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J150"/>
       <c r="K150" t="s">
@@ -9515,7 +9512,7 @@
         <v>12</v>
       </c>
       <c r="B151" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C151">
         <v>18</v>
@@ -9524,11 +9521,11 @@
         <v>45</v>
       </c>
       <c r="E151" t="s">
+        <v>364</v>
+      </c>
+      <c r="F151" t="s">
         <v>365</v>
       </c>
-      <c r="F151" t="s">
-        <v>366</v>
-      </c>
       <c r="G151" t="s">
         <v>15</v>
       </c>
@@ -9536,7 +9533,7 @@
         <v>16</v>
       </c>
       <c r="I151" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J151"/>
       <c r="K151" t="s">
@@ -9551,7 +9548,7 @@
         <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C152">
         <v>18</v>
@@ -9560,11 +9557,11 @@
         <v>51</v>
       </c>
       <c r="E152" t="s">
+        <v>366</v>
+      </c>
+      <c r="F152" t="s">
         <v>367</v>
       </c>
-      <c r="F152" t="s">
-        <v>368</v>
-      </c>
       <c r="G152" t="s">
         <v>15</v>
       </c>
@@ -9572,7 +9569,7 @@
         <v>16</v>
       </c>
       <c r="I152" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J152"/>
       <c r="K152" t="s">
@@ -9587,7 +9584,7 @@
         <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C153">
         <v>19</v>
@@ -9596,11 +9593,11 @@
         <v>38</v>
       </c>
       <c r="E153" t="s">
+        <v>368</v>
+      </c>
+      <c r="F153" t="s">
         <v>369</v>
       </c>
-      <c r="F153" t="s">
-        <v>370</v>
-      </c>
       <c r="G153" t="s">
         <v>15</v>
       </c>
@@ -9608,7 +9605,7 @@
         <v>16</v>
       </c>
       <c r="I153" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J153"/>
       <c r="K153" t="s">
@@ -9623,7 +9620,7 @@
         <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C154">
         <v>19</v>
@@ -9632,11 +9629,11 @@
         <v>69</v>
       </c>
       <c r="E154" t="s">
+        <v>370</v>
+      </c>
+      <c r="F154" t="s">
         <v>371</v>
       </c>
-      <c r="F154" t="s">
-        <v>372</v>
-      </c>
       <c r="G154" t="s">
         <v>15</v>
       </c>
@@ -9644,7 +9641,7 @@
         <v>16</v>
       </c>
       <c r="I154" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J154"/>
       <c r="K154" t="s">
@@ -9659,7 +9656,7 @@
         <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C155">
         <v>20</v>
@@ -9668,11 +9665,11 @@
         <v>38</v>
       </c>
       <c r="E155" t="s">
+        <v>372</v>
+      </c>
+      <c r="F155" t="s">
         <v>373</v>
       </c>
-      <c r="F155" t="s">
-        <v>374</v>
-      </c>
       <c r="G155" t="s">
         <v>15</v>
       </c>
@@ -9680,7 +9677,7 @@
         <v>16</v>
       </c>
       <c r="I155" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J155"/>
       <c r="K155" t="s">
@@ -9695,7 +9692,7 @@
         <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C156">
         <v>20</v>
@@ -9704,11 +9701,11 @@
         <v>60</v>
       </c>
       <c r="E156" t="s">
+        <v>374</v>
+      </c>
+      <c r="F156" t="s">
         <v>375</v>
       </c>
-      <c r="F156" t="s">
-        <v>376</v>
-      </c>
       <c r="G156" t="s">
         <v>15</v>
       </c>
@@ -9716,7 +9713,7 @@
         <v>16</v>
       </c>
       <c r="I156" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J156"/>
       <c r="K156" t="s">
@@ -9731,7 +9728,7 @@
         <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C157">
         <v>20</v>
@@ -9740,11 +9737,11 @@
         <v>69</v>
       </c>
       <c r="E157" t="s">
+        <v>376</v>
+      </c>
+      <c r="F157" t="s">
         <v>377</v>
       </c>
-      <c r="F157" t="s">
-        <v>378</v>
-      </c>
       <c r="G157" t="s">
         <v>15</v>
       </c>
@@ -9752,7 +9749,7 @@
         <v>16</v>
       </c>
       <c r="I157" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J157"/>
       <c r="K157" t="s">
@@ -9767,7 +9764,7 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C158">
         <v>21</v>
@@ -9776,11 +9773,11 @@
         <v>45</v>
       </c>
       <c r="E158" t="s">
+        <v>378</v>
+      </c>
+      <c r="F158" t="s">
         <v>379</v>
       </c>
-      <c r="F158" t="s">
-        <v>380</v>
-      </c>
       <c r="G158" t="s">
         <v>15</v>
       </c>
@@ -9788,7 +9785,7 @@
         <v>16</v>
       </c>
       <c r="I158" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J158"/>
       <c r="K158" t="s">
@@ -9803,7 +9800,7 @@
         <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C159">
         <v>21</v>
@@ -9812,11 +9809,11 @@
         <v>51</v>
       </c>
       <c r="E159" t="s">
+        <v>380</v>
+      </c>
+      <c r="F159" t="s">
         <v>381</v>
       </c>
-      <c r="F159" t="s">
-        <v>382</v>
-      </c>
       <c r="G159" t="s">
         <v>15</v>
       </c>
@@ -9824,7 +9821,7 @@
         <v>16</v>
       </c>
       <c r="I159" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J159"/>
       <c r="K159" t="s">
@@ -9839,7 +9836,7 @@
         <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C160">
         <v>3</v>
@@ -9848,11 +9845,11 @@
         <v>93</v>
       </c>
       <c r="E160" t="s">
+        <v>383</v>
+      </c>
+      <c r="F160" t="s">
         <v>384</v>
       </c>
-      <c r="F160" t="s">
-        <v>385</v>
-      </c>
       <c r="G160" t="s">
         <v>15</v>
       </c>
@@ -9860,7 +9857,7 @@
         <v>16</v>
       </c>
       <c r="I160" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J160"/>
       <c r="K160" t="s">
@@ -9875,7 +9872,7 @@
         <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C161">
         <v>3</v>
@@ -9884,11 +9881,11 @@
         <v>45</v>
       </c>
       <c r="E161" t="s">
+        <v>385</v>
+      </c>
+      <c r="F161" t="s">
         <v>386</v>
       </c>
-      <c r="F161" t="s">
-        <v>387</v>
-      </c>
       <c r="G161" t="s">
         <v>15</v>
       </c>
@@ -9896,7 +9893,7 @@
         <v>16</v>
       </c>
       <c r="I161" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J161"/>
       <c r="K161" t="s">
@@ -9911,7 +9908,7 @@
         <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C162">
         <v>4</v>
@@ -9920,11 +9917,11 @@
         <v>93</v>
       </c>
       <c r="E162" t="s">
+        <v>387</v>
+      </c>
+      <c r="F162" t="s">
         <v>388</v>
       </c>
-      <c r="F162" t="s">
-        <v>389</v>
-      </c>
       <c r="G162" t="s">
         <v>15</v>
       </c>
@@ -9932,7 +9929,7 @@
         <v>16</v>
       </c>
       <c r="I162" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J162"/>
       <c r="K162" t="s">
@@ -9947,7 +9944,7 @@
         <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C163">
         <v>4</v>
@@ -9956,11 +9953,11 @@
         <v>45</v>
       </c>
       <c r="E163" t="s">
+        <v>389</v>
+      </c>
+      <c r="F163" t="s">
         <v>390</v>
       </c>
-      <c r="F163" t="s">
-        <v>391</v>
-      </c>
       <c r="G163" t="s">
         <v>15</v>
       </c>
@@ -9968,7 +9965,7 @@
         <v>16</v>
       </c>
       <c r="I163" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J163"/>
       <c r="K163" t="s">
@@ -9983,7 +9980,7 @@
         <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C164">
         <v>5</v>
@@ -9992,11 +9989,11 @@
         <v>38</v>
       </c>
       <c r="E164" t="s">
+        <v>391</v>
+      </c>
+      <c r="F164" t="s">
         <v>392</v>
       </c>
-      <c r="F164" t="s">
-        <v>393</v>
-      </c>
       <c r="G164" t="s">
         <v>15</v>
       </c>
@@ -10004,7 +10001,7 @@
         <v>16</v>
       </c>
       <c r="I164" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J164"/>
       <c r="K164" t="s">
@@ -10019,7 +10016,7 @@
         <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C165">
         <v>5</v>
@@ -10028,11 +10025,11 @@
         <v>51</v>
       </c>
       <c r="E165" t="s">
+        <v>393</v>
+      </c>
+      <c r="F165" t="s">
         <v>394</v>
       </c>
-      <c r="F165" t="s">
-        <v>395</v>
-      </c>
       <c r="G165" t="s">
         <v>15</v>
       </c>
@@ -10040,7 +10037,7 @@
         <v>16</v>
       </c>
       <c r="I165" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J165"/>
       <c r="K165" t="s">
@@ -10055,7 +10052,7 @@
         <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -10064,10 +10061,10 @@
         <v>57</v>
       </c>
       <c r="E166" t="s">
+        <v>395</v>
+      </c>
+      <c r="F166" t="s">
         <v>396</v>
-      </c>
-      <c r="F166" t="s">
-        <v>397</v>
       </c>
       <c r="G166" t="s">
         <v>15</v>
@@ -10091,7 +10088,7 @@
         <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C167">
         <v>5</v>
@@ -10100,11 +10097,11 @@
         <v>69</v>
       </c>
       <c r="E167" t="s">
+        <v>397</v>
+      </c>
+      <c r="F167" t="s">
         <v>398</v>
       </c>
-      <c r="F167" t="s">
-        <v>399</v>
-      </c>
       <c r="G167" t="s">
         <v>15</v>
       </c>
@@ -10112,7 +10109,7 @@
         <v>16</v>
       </c>
       <c r="I167" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J167"/>
       <c r="K167" t="s">
@@ -10127,7 +10124,7 @@
         <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C168">
         <v>6</v>
@@ -10136,11 +10133,11 @@
         <v>34</v>
       </c>
       <c r="E168" t="s">
+        <v>399</v>
+      </c>
+      <c r="F168" t="s">
         <v>400</v>
       </c>
-      <c r="F168" t="s">
-        <v>401</v>
-      </c>
       <c r="G168" t="s">
         <v>15</v>
       </c>
@@ -10148,7 +10145,7 @@
         <v>16</v>
       </c>
       <c r="I168" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J168"/>
       <c r="K168" t="s">
@@ -10163,7 +10160,7 @@
         <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C169">
         <v>6</v>
@@ -10172,11 +10169,11 @@
         <v>38</v>
       </c>
       <c r="E169" t="s">
+        <v>401</v>
+      </c>
+      <c r="F169" t="s">
         <v>402</v>
       </c>
-      <c r="F169" t="s">
-        <v>403</v>
-      </c>
       <c r="G169" t="s">
         <v>15</v>
       </c>
@@ -10184,7 +10181,7 @@
         <v>16</v>
       </c>
       <c r="I169" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J169"/>
       <c r="K169" t="s">
@@ -10199,7 +10196,7 @@
         <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C170">
         <v>6</v>
@@ -10208,11 +10205,11 @@
         <v>57</v>
       </c>
       <c r="E170" t="s">
+        <v>403</v>
+      </c>
+      <c r="F170" t="s">
         <v>404</v>
       </c>
-      <c r="F170" t="s">
-        <v>405</v>
-      </c>
       <c r="G170" t="s">
         <v>15</v>
       </c>
@@ -10220,7 +10217,7 @@
         <v>16</v>
       </c>
       <c r="I170" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J170"/>
       <c r="K170" t="s">
@@ -10235,7 +10232,7 @@
         <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C171">
         <v>7</v>
@@ -10244,11 +10241,11 @@
         <v>34</v>
       </c>
       <c r="E171" t="s">
+        <v>405</v>
+      </c>
+      <c r="F171" t="s">
         <v>406</v>
       </c>
-      <c r="F171" t="s">
-        <v>407</v>
-      </c>
       <c r="G171" t="s">
         <v>15</v>
       </c>
@@ -10256,7 +10253,7 @@
         <v>16</v>
       </c>
       <c r="I171" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J171"/>
       <c r="K171" t="s">
@@ -10271,7 +10268,7 @@
         <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C172">
         <v>7</v>
@@ -10280,11 +10277,11 @@
         <v>45</v>
       </c>
       <c r="E172" t="s">
+        <v>407</v>
+      </c>
+      <c r="F172" t="s">
         <v>408</v>
       </c>
-      <c r="F172" t="s">
-        <v>409</v>
-      </c>
       <c r="G172" t="s">
         <v>15</v>
       </c>
@@ -10292,7 +10289,7 @@
         <v>16</v>
       </c>
       <c r="I172" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J172"/>
       <c r="K172" t="s">
@@ -10307,7 +10304,7 @@
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C173">
         <v>7</v>
@@ -10316,11 +10313,11 @@
         <v>69</v>
       </c>
       <c r="E173" t="s">
+        <v>409</v>
+      </c>
+      <c r="F173" t="s">
         <v>410</v>
       </c>
-      <c r="F173" t="s">
-        <v>411</v>
-      </c>
       <c r="G173" t="s">
         <v>15</v>
       </c>
@@ -10328,7 +10325,7 @@
         <v>16</v>
       </c>
       <c r="I173" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J173"/>
       <c r="K173" t="s">
@@ -10343,7 +10340,7 @@
         <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C174">
         <v>8</v>
@@ -10352,11 +10349,11 @@
         <v>38</v>
       </c>
       <c r="E174" t="s">
+        <v>411</v>
+      </c>
+      <c r="F174" t="s">
         <v>412</v>
       </c>
-      <c r="F174" t="s">
-        <v>413</v>
-      </c>
       <c r="G174" t="s">
         <v>15</v>
       </c>
@@ -10364,7 +10361,7 @@
         <v>16</v>
       </c>
       <c r="I174" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J174"/>
       <c r="K174" t="s">
@@ -10379,7 +10376,7 @@
         <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C175">
         <v>8</v>
@@ -10388,11 +10385,11 @@
         <v>69</v>
       </c>
       <c r="E175" t="s">
+        <v>413</v>
+      </c>
+      <c r="F175" t="s">
         <v>414</v>
       </c>
-      <c r="F175" t="s">
-        <v>415</v>
-      </c>
       <c r="G175" t="s">
         <v>15</v>
       </c>
@@ -10400,7 +10397,7 @@
         <v>16</v>
       </c>
       <c r="I175" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J175"/>
       <c r="K175" t="s">
@@ -10415,7 +10412,7 @@
         <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C176">
         <v>8</v>
@@ -10424,10 +10421,10 @@
         <v>69</v>
       </c>
       <c r="E176" t="s">
+        <v>415</v>
+      </c>
+      <c r="F176" t="s">
         <v>416</v>
-      </c>
-      <c r="F176" t="s">
-        <v>417</v>
       </c>
       <c r="G176" t="s">
         <v>15</v>
@@ -10451,7 +10448,7 @@
         <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C177">
         <v>8</v>
@@ -10460,11 +10457,11 @@
         <v>76</v>
       </c>
       <c r="E177" t="s">
+        <v>417</v>
+      </c>
+      <c r="F177" t="s">
         <v>418</v>
       </c>
-      <c r="F177" t="s">
-        <v>419</v>
-      </c>
       <c r="G177" t="s">
         <v>15</v>
       </c>
@@ -10472,7 +10469,7 @@
         <v>16</v>
       </c>
       <c r="I177" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J177"/>
       <c r="K177" t="s">
@@ -10487,7 +10484,7 @@
         <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C178">
         <v>9</v>
@@ -10496,11 +10493,11 @@
         <v>93</v>
       </c>
       <c r="E178" t="s">
+        <v>419</v>
+      </c>
+      <c r="F178" t="s">
         <v>420</v>
       </c>
-      <c r="F178" t="s">
-        <v>421</v>
-      </c>
       <c r="G178" t="s">
         <v>15</v>
       </c>
@@ -10508,7 +10505,7 @@
         <v>16</v>
       </c>
       <c r="I178" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J178"/>
       <c r="K178" t="s">
@@ -10523,7 +10520,7 @@
         <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C179">
         <v>9</v>
@@ -10532,11 +10529,11 @@
         <v>45</v>
       </c>
       <c r="E179" t="s">
+        <v>421</v>
+      </c>
+      <c r="F179" t="s">
         <v>422</v>
       </c>
-      <c r="F179" t="s">
-        <v>423</v>
-      </c>
       <c r="G179" t="s">
         <v>15</v>
       </c>
@@ -10544,7 +10541,7 @@
         <v>16</v>
       </c>
       <c r="I179" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J179"/>
       <c r="K179" t="s">
@@ -10559,7 +10556,7 @@
         <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C180">
         <v>10</v>
@@ -10568,19 +10565,19 @@
         <v>93</v>
       </c>
       <c r="E180" t="s">
+        <v>423</v>
+      </c>
+      <c r="F180" t="s">
         <v>424</v>
       </c>
-      <c r="F180" t="s">
+      <c r="G180" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180" t="s">
+        <v>16</v>
+      </c>
+      <c r="I180" t="s">
         <v>425</v>
-      </c>
-      <c r="G180" t="s">
-        <v>15</v>
-      </c>
-      <c r="H180" t="s">
-        <v>16</v>
-      </c>
-      <c r="I180" t="s">
-        <v>226</v>
       </c>
       <c r="J180"/>
       <c r="K180" t="s">
@@ -10595,7 +10592,7 @@
         <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C181">
         <v>10</v>
@@ -10616,7 +10613,7 @@
         <v>16</v>
       </c>
       <c r="I181" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J181"/>
       <c r="K181" t="s">
@@ -10631,7 +10628,7 @@
         <v>12</v>
       </c>
       <c r="B182" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C182">
         <v>11</v>
@@ -10652,7 +10649,7 @@
         <v>16</v>
       </c>
       <c r="I182" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J182"/>
       <c r="K182" t="s">
@@ -10667,7 +10664,7 @@
         <v>12</v>
       </c>
       <c r="B183" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C183">
         <v>11</v>
@@ -10688,7 +10685,7 @@
         <v>16</v>
       </c>
       <c r="I183" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J183"/>
       <c r="K183" t="s">
@@ -10703,7 +10700,7 @@
         <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C184">
         <v>12</v>
@@ -10724,7 +10721,7 @@
         <v>16</v>
       </c>
       <c r="I184" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J184"/>
       <c r="K184" t="s">
@@ -10739,7 +10736,7 @@
         <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C185">
         <v>12</v>
@@ -10760,7 +10757,7 @@
         <v>16</v>
       </c>
       <c r="I185" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J185"/>
       <c r="K185" t="s">
@@ -10775,7 +10772,7 @@
         <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C186">
         <v>14</v>
@@ -10796,7 +10793,7 @@
         <v>16</v>
       </c>
       <c r="I186" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="J186"/>
       <c r="K186" t="s">
@@ -10811,7 +10808,7 @@
         <v>12</v>
       </c>
       <c r="B187" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C187">
         <v>14</v>
@@ -10832,7 +10829,7 @@
         <v>16</v>
       </c>
       <c r="I187" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J187"/>
       <c r="K187" t="s">
@@ -10847,7 +10844,7 @@
         <v>12</v>
       </c>
       <c r="B188" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C188">
         <v>14</v>
@@ -10868,7 +10865,7 @@
         <v>16</v>
       </c>
       <c r="I188" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J188"/>
       <c r="K188" t="s">
@@ -10883,7 +10880,7 @@
         <v>12</v>
       </c>
       <c r="B189" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C189">
         <v>14</v>
@@ -10904,7 +10901,7 @@
         <v>16</v>
       </c>
       <c r="I189" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="J189"/>
       <c r="K189" t="s">
@@ -10919,7 +10916,7 @@
         <v>12</v>
       </c>
       <c r="B190" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C190">
         <v>15</v>
@@ -10940,7 +10937,7 @@
         <v>16</v>
       </c>
       <c r="I190" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J190"/>
       <c r="K190" t="s">
@@ -10955,7 +10952,7 @@
         <v>12</v>
       </c>
       <c r="B191" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C191">
         <v>15</v>
@@ -10976,7 +10973,7 @@
         <v>16</v>
       </c>
       <c r="I191" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J191"/>
       <c r="K191" t="s">
@@ -10991,7 +10988,7 @@
         <v>12</v>
       </c>
       <c r="B192" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C192">
         <v>15</v>
@@ -11012,7 +11009,7 @@
         <v>16</v>
       </c>
       <c r="I192" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J192"/>
       <c r="K192" t="s">
@@ -11027,7 +11024,7 @@
         <v>12</v>
       </c>
       <c r="B193" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C193">
         <v>15</v>
@@ -11048,7 +11045,7 @@
         <v>16</v>
       </c>
       <c r="I193" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J193"/>
       <c r="K193" t="s">
@@ -11063,7 +11060,7 @@
         <v>12</v>
       </c>
       <c r="B194" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C194">
         <v>16</v>
@@ -11084,7 +11081,7 @@
         <v>16</v>
       </c>
       <c r="I194" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J194"/>
       <c r="K194" t="s">
@@ -11099,7 +11096,7 @@
         <v>12</v>
       </c>
       <c r="B195" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C195">
         <v>16</v>
@@ -11120,7 +11117,7 @@
         <v>16</v>
       </c>
       <c r="I195" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J195"/>
       <c r="K195" t="s">
@@ -11135,7 +11132,7 @@
         <v>12</v>
       </c>
       <c r="B196" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C196">
         <v>16</v>
@@ -11156,7 +11153,7 @@
         <v>16</v>
       </c>
       <c r="I196" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J196"/>
       <c r="K196" t="s">
@@ -11171,7 +11168,7 @@
         <v>12</v>
       </c>
       <c r="B197" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C197">
         <v>16</v>
@@ -11192,7 +11189,7 @@
         <v>16</v>
       </c>
       <c r="I197" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J197"/>
       <c r="K197" t="s">
@@ -11207,7 +11204,7 @@
         <v>12</v>
       </c>
       <c r="B198" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C198">
         <v>16</v>
@@ -11228,7 +11225,7 @@
         <v>16</v>
       </c>
       <c r="I198" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J198"/>
       <c r="K198" t="s">
@@ -11243,7 +11240,7 @@
         <v>12</v>
       </c>
       <c r="B199" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C199">
         <v>18</v>
@@ -11264,7 +11261,7 @@
         <v>16</v>
       </c>
       <c r="I199" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J199"/>
       <c r="K199" t="s">
@@ -11279,7 +11276,7 @@
         <v>12</v>
       </c>
       <c r="B200" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C200">
         <v>18</v>
@@ -11300,7 +11297,7 @@
         <v>16</v>
       </c>
       <c r="I200" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J200"/>
       <c r="K200" t="s">
@@ -11315,7 +11312,7 @@
         <v>12</v>
       </c>
       <c r="B201" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C201">
         <v>18</v>
@@ -11336,7 +11333,7 @@
         <v>16</v>
       </c>
       <c r="I201" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J201"/>
       <c r="K201" t="s">
@@ -11351,7 +11348,7 @@
         <v>12</v>
       </c>
       <c r="B202" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C202">
         <v>18</v>
@@ -11372,7 +11369,7 @@
         <v>16</v>
       </c>
       <c r="I202" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J202"/>
       <c r="K202" t="s">
@@ -11387,7 +11384,7 @@
         <v>12</v>
       </c>
       <c r="B203" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C203">
         <v>18</v>
@@ -11408,7 +11405,7 @@
         <v>16</v>
       </c>
       <c r="I203" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J203"/>
       <c r="K203" t="s">
@@ -11423,7 +11420,7 @@
         <v>12</v>
       </c>
       <c r="B204" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C204">
         <v>18</v>
@@ -11444,7 +11441,7 @@
         <v>16</v>
       </c>
       <c r="I204" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J204"/>
       <c r="K204" t="s">
@@ -11459,7 +11456,7 @@
         <v>12</v>
       </c>
       <c r="B205" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C205">
         <v>19</v>
@@ -11480,7 +11477,7 @@
         <v>16</v>
       </c>
       <c r="I205" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J205"/>
       <c r="K205" t="s">
@@ -11495,7 +11492,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C206">
         <v>19</v>
@@ -11516,7 +11513,7 @@
         <v>16</v>
       </c>
       <c r="I206" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J206"/>
       <c r="K206" t="s">
@@ -11531,7 +11528,7 @@
         <v>12</v>
       </c>
       <c r="B207" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C207">
         <v>20</v>
@@ -11567,7 +11564,7 @@
         <v>12</v>
       </c>
       <c r="B208" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C208">
         <v>20</v>
@@ -11588,7 +11585,7 @@
         <v>16</v>
       </c>
       <c r="I208" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J208"/>
       <c r="K208" t="s">
@@ -11603,7 +11600,7 @@
         <v>12</v>
       </c>
       <c r="B209" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C209">
         <v>20</v>
@@ -11624,7 +11621,7 @@
         <v>16</v>
       </c>
       <c r="I209" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J209"/>
       <c r="K209" t="s">
@@ -11639,7 +11636,7 @@
         <v>12</v>
       </c>
       <c r="B210" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C210">
         <v>20</v>
@@ -11660,7 +11657,7 @@
         <v>16</v>
       </c>
       <c r="I210" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J210"/>
       <c r="K210" t="s">
@@ -11675,7 +11672,7 @@
         <v>12</v>
       </c>
       <c r="B211" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C211">
         <v>21</v>
@@ -11711,7 +11708,7 @@
         <v>12</v>
       </c>
       <c r="B212" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C212">
         <v>21</v>
@@ -11732,7 +11729,7 @@
         <v>16</v>
       </c>
       <c r="I212" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J212"/>
       <c r="K212" t="s">
@@ -11747,7 +11744,7 @@
         <v>12</v>
       </c>
       <c r="B213" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C213">
         <v>21</v>
@@ -11768,7 +11765,7 @@
         <v>16</v>
       </c>
       <c r="I213" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J213"/>
       <c r="K213" t="s">
@@ -11804,7 +11801,7 @@
         <v>16</v>
       </c>
       <c r="I214" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J214"/>
       <c r="K214" t="s">
@@ -11840,7 +11837,7 @@
         <v>16</v>
       </c>
       <c r="I215" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J215"/>
       <c r="K215" t="s">
@@ -11876,7 +11873,7 @@
         <v>16</v>
       </c>
       <c r="I216" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J216"/>
       <c r="K216" t="s">
@@ -11912,7 +11909,7 @@
         <v>16</v>
       </c>
       <c r="I217" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J217"/>
       <c r="K217" t="s">
@@ -11948,7 +11945,7 @@
         <v>16</v>
       </c>
       <c r="I218" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J218"/>
       <c r="K218" t="s">
@@ -12020,7 +12017,7 @@
         <v>16</v>
       </c>
       <c r="I220" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J220"/>
       <c r="K220" t="s">
@@ -12056,7 +12053,7 @@
         <v>16</v>
       </c>
       <c r="I221" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J221"/>
       <c r="K221" t="s">
@@ -12092,7 +12089,7 @@
         <v>16</v>
       </c>
       <c r="I222" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J222"/>
       <c r="K222" t="s">
@@ -12128,7 +12125,7 @@
         <v>16</v>
       </c>
       <c r="I223" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J223"/>
       <c r="K223" t="s">
@@ -12164,7 +12161,7 @@
         <v>16</v>
       </c>
       <c r="I224" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J224"/>
       <c r="K224" t="s">
@@ -12200,7 +12197,7 @@
         <v>16</v>
       </c>
       <c r="I225" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J225"/>
       <c r="K225" t="s">
@@ -12236,7 +12233,7 @@
         <v>16</v>
       </c>
       <c r="I226" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J226"/>
       <c r="K226" t="s">
@@ -12272,7 +12269,7 @@
         <v>16</v>
       </c>
       <c r="I227" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J227"/>
       <c r="K227" t="s">
@@ -12380,7 +12377,7 @@
         <v>16</v>
       </c>
       <c r="I230" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J230"/>
       <c r="K230" t="s">
@@ -12416,7 +12413,7 @@
         <v>16</v>
       </c>
       <c r="I231" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J231"/>
       <c r="K231" t="s">
@@ -12488,7 +12485,7 @@
         <v>16</v>
       </c>
       <c r="I233" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J233"/>
       <c r="K233" t="s">
@@ -12524,7 +12521,7 @@
         <v>16</v>
       </c>
       <c r="I234" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J234"/>
       <c r="K234" t="s">
@@ -12560,7 +12557,7 @@
         <v>16</v>
       </c>
       <c r="I235" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J235"/>
       <c r="K235" t="s">
@@ -12596,7 +12593,7 @@
         <v>16</v>
       </c>
       <c r="I236" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J236"/>
       <c r="K236" t="s">
@@ -12632,7 +12629,7 @@
         <v>16</v>
       </c>
       <c r="I237" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J237"/>
       <c r="K237" t="s">
@@ -12668,7 +12665,7 @@
         <v>16</v>
       </c>
       <c r="I238" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J238"/>
       <c r="K238" t="s">
@@ -12704,7 +12701,7 @@
         <v>16</v>
       </c>
       <c r="I239" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J239"/>
       <c r="K239" t="s">
@@ -12740,7 +12737,7 @@
         <v>16</v>
       </c>
       <c r="I240" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J240"/>
       <c r="K240" t="s">
@@ -12776,7 +12773,7 @@
         <v>16</v>
       </c>
       <c r="I241" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J241"/>
       <c r="K241" t="s">
@@ -12812,7 +12809,7 @@
         <v>16</v>
       </c>
       <c r="I242" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J242"/>
       <c r="K242" t="s">
@@ -12848,7 +12845,7 @@
         <v>16</v>
       </c>
       <c r="I243" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J243"/>
       <c r="K243" t="s">
@@ -12884,7 +12881,7 @@
         <v>16</v>
       </c>
       <c r="I244" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J244"/>
       <c r="K244" t="s">
@@ -12920,7 +12917,7 @@
         <v>16</v>
       </c>
       <c r="I245" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J245"/>
       <c r="K245" t="s">
@@ -12956,7 +12953,7 @@
         <v>16</v>
       </c>
       <c r="I246" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J246"/>
       <c r="K246" t="s">
@@ -12992,7 +12989,7 @@
         <v>16</v>
       </c>
       <c r="I247" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J247"/>
       <c r="K247" t="s">
@@ -13028,7 +13025,7 @@
         <v>16</v>
       </c>
       <c r="I248" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J248"/>
       <c r="K248" t="s">
@@ -13064,7 +13061,7 @@
         <v>16</v>
       </c>
       <c r="I249" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J249"/>
       <c r="K249" t="s">
@@ -13100,7 +13097,7 @@
         <v>16</v>
       </c>
       <c r="I250" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J250"/>
       <c r="K250" t="s">
@@ -13136,7 +13133,7 @@
         <v>16</v>
       </c>
       <c r="I251" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J251"/>
       <c r="K251" t="s">
@@ -13172,7 +13169,7 @@
         <v>16</v>
       </c>
       <c r="I252" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J252"/>
       <c r="K252" t="s">
@@ -13208,7 +13205,7 @@
         <v>16</v>
       </c>
       <c r="I253" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J253"/>
       <c r="K253" t="s">
@@ -13244,7 +13241,7 @@
         <v>16</v>
       </c>
       <c r="I254" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J254"/>
       <c r="K254" t="s">
@@ -13280,7 +13277,7 @@
         <v>16</v>
       </c>
       <c r="I255" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J255"/>
       <c r="K255" t="s">
@@ -13316,7 +13313,7 @@
         <v>16</v>
       </c>
       <c r="I256" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J256"/>
       <c r="K256" t="s">
@@ -13352,7 +13349,7 @@
         <v>16</v>
       </c>
       <c r="I257" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J257"/>
       <c r="K257" t="s">
@@ -13388,7 +13385,7 @@
         <v>16</v>
       </c>
       <c r="I258" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J258"/>
       <c r="K258" t="s">
@@ -13424,7 +13421,7 @@
         <v>16</v>
       </c>
       <c r="I259" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J259"/>
       <c r="K259" t="s">
@@ -13460,7 +13457,7 @@
         <v>16</v>
       </c>
       <c r="I260" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J260"/>
       <c r="K260" t="s">
@@ -13532,7 +13529,7 @@
         <v>16</v>
       </c>
       <c r="I262" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J262"/>
       <c r="K262" t="s">
@@ -13604,7 +13601,7 @@
         <v>16</v>
       </c>
       <c r="I264" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J264"/>
       <c r="K264" t="s">
@@ -13640,7 +13637,7 @@
         <v>16</v>
       </c>
       <c r="I265" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J265"/>
       <c r="K265" t="s">
@@ -13676,7 +13673,7 @@
         <v>16</v>
       </c>
       <c r="I266" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J266"/>
       <c r="K266" t="s">
@@ -13748,7 +13745,7 @@
         <v>16</v>
       </c>
       <c r="I268" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J268"/>
       <c r="K268" t="s">
@@ -13784,7 +13781,7 @@
         <v>16</v>
       </c>
       <c r="I269" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J269"/>
       <c r="K269" t="s">
@@ -13818,7 +13815,7 @@
         <v>16</v>
       </c>
       <c r="I270" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J270"/>
       <c r="K270" t="s">
@@ -13852,7 +13849,7 @@
         <v>16</v>
       </c>
       <c r="I271" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J271"/>
       <c r="K271" t="s">
@@ -13886,7 +13883,7 @@
         <v>16</v>
       </c>
       <c r="I272" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J272"/>
       <c r="K272" t="s">
@@ -13920,7 +13917,7 @@
         <v>16</v>
       </c>
       <c r="I273" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J273"/>
       <c r="K273" t="s">
@@ -13954,7 +13951,7 @@
         <v>16</v>
       </c>
       <c r="I274" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J274"/>
       <c r="K274" t="s">
@@ -13988,7 +13985,7 @@
         <v>16</v>
       </c>
       <c r="I275" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J275"/>
       <c r="K275" t="s">
@@ -14056,7 +14053,7 @@
         <v>16</v>
       </c>
       <c r="I277" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J277"/>
       <c r="K277" t="s">
@@ -14090,7 +14087,7 @@
         <v>16</v>
       </c>
       <c r="I278" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J278"/>
       <c r="K278" t="s">
@@ -14124,7 +14121,7 @@
         <v>16</v>
       </c>
       <c r="I279" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J279"/>
       <c r="K279" t="s">
@@ -14158,7 +14155,7 @@
         <v>16</v>
       </c>
       <c r="I280" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J280"/>
       <c r="K280" t="s">
@@ -14226,7 +14223,7 @@
         <v>16</v>
       </c>
       <c r="I282" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J282"/>
       <c r="K282" t="s">
@@ -14260,7 +14257,7 @@
         <v>16</v>
       </c>
       <c r="I283" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J283"/>
       <c r="K283" t="s">
@@ -14328,7 +14325,7 @@
         <v>16</v>
       </c>
       <c r="I285" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J285"/>
       <c r="K285" t="s">
@@ -14362,7 +14359,7 @@
         <v>16</v>
       </c>
       <c r="I286" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J286"/>
       <c r="K286" t="s">
@@ -14464,7 +14461,7 @@
         <v>16</v>
       </c>
       <c r="I289" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J289"/>
       <c r="K289" t="s">
@@ -14498,7 +14495,7 @@
         <v>16</v>
       </c>
       <c r="I290" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J290"/>
       <c r="K290" t="s">
@@ -14532,7 +14529,7 @@
         <v>16</v>
       </c>
       <c r="I291" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J291"/>
       <c r="K291" t="s">
@@ -14600,7 +14597,7 @@
         <v>16</v>
       </c>
       <c r="I293" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J293"/>
       <c r="K293" t="s">
@@ -14634,7 +14631,7 @@
         <v>16</v>
       </c>
       <c r="I294" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="J294"/>
       <c r="K294" t="s">
@@ -14668,7 +14665,7 @@
         <v>16</v>
       </c>
       <c r="I295" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J295"/>
       <c r="K295" t="s">
@@ -14702,7 +14699,7 @@
         <v>16</v>
       </c>
       <c r="I296" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J296"/>
       <c r="K296" t="s">
@@ -14736,7 +14733,7 @@
         <v>16</v>
       </c>
       <c r="I297" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J297"/>
       <c r="K297" t="s">
@@ -14772,7 +14769,7 @@
         <v>16</v>
       </c>
       <c r="I298" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J298"/>
       <c r="K298" t="s">
@@ -14808,7 +14805,7 @@
         <v>16</v>
       </c>
       <c r="I299" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J299"/>
       <c r="K299" t="s">
@@ -14844,7 +14841,7 @@
         <v>16</v>
       </c>
       <c r="I300" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J300"/>
       <c r="K300" t="s">
@@ -14880,7 +14877,7 @@
         <v>16</v>
       </c>
       <c r="I301" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J301"/>
       <c r="K301" t="s">
@@ -14916,7 +14913,7 @@
         <v>16</v>
       </c>
       <c r="I302" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J302"/>
       <c r="K302" t="s">
@@ -14952,7 +14949,7 @@
         <v>16</v>
       </c>
       <c r="I303" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J303"/>
       <c r="K303" t="s">
@@ -14988,7 +14985,7 @@
         <v>16</v>
       </c>
       <c r="I304" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J304"/>
       <c r="K304" t="s">
@@ -15024,7 +15021,7 @@
         <v>16</v>
       </c>
       <c r="I305" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J305"/>
       <c r="K305" t="s">
@@ -15060,7 +15057,7 @@
         <v>16</v>
       </c>
       <c r="I306" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J306"/>
       <c r="K306" t="s">
@@ -15096,7 +15093,7 @@
         <v>16</v>
       </c>
       <c r="I307" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J307"/>
       <c r="K307" t="s">
@@ -15132,7 +15129,7 @@
         <v>16</v>
       </c>
       <c r="I308" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J308"/>
       <c r="K308" t="s">
@@ -15168,7 +15165,7 @@
         <v>16</v>
       </c>
       <c r="I309" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J309"/>
       <c r="K309" t="s">
@@ -15204,7 +15201,7 @@
         <v>16</v>
       </c>
       <c r="I310" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J310"/>
       <c r="K310" t="s">
@@ -15240,7 +15237,7 @@
         <v>16</v>
       </c>
       <c r="I311" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J311"/>
       <c r="K311" t="s">
@@ -15276,7 +15273,7 @@
         <v>16</v>
       </c>
       <c r="I312" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J312"/>
       <c r="K312" t="s">
@@ -15312,7 +15309,7 @@
         <v>16</v>
       </c>
       <c r="I313" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J313"/>
       <c r="K313" t="s">
@@ -15348,7 +15345,7 @@
         <v>16</v>
       </c>
       <c r="I314" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J314"/>
       <c r="K314" t="s">
@@ -15384,7 +15381,7 @@
         <v>16</v>
       </c>
       <c r="I315" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J315"/>
       <c r="K315" t="s">
@@ -15420,7 +15417,7 @@
         <v>16</v>
       </c>
       <c r="I316" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J316"/>
       <c r="K316" t="s">
@@ -15456,7 +15453,7 @@
         <v>16</v>
       </c>
       <c r="I317" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="J317"/>
       <c r="K317" t="s">
@@ -15492,7 +15489,7 @@
         <v>16</v>
       </c>
       <c r="I318" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J318"/>
       <c r="K318" t="s">
@@ -15528,7 +15525,7 @@
         <v>16</v>
       </c>
       <c r="I319" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="J319"/>
       <c r="K319" t="s">
@@ -15600,7 +15597,7 @@
         <v>16</v>
       </c>
       <c r="I321" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J321"/>
       <c r="K321" t="s">
@@ -15636,7 +15633,7 @@
         <v>16</v>
       </c>
       <c r="I322" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J322"/>
       <c r="K322" t="s">
@@ -17760,7 +17757,7 @@
         <v>16</v>
       </c>
       <c r="I381" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J381"/>
       <c r="K381" t="s">
@@ -19704,7 +19701,7 @@
         <v>16</v>
       </c>
       <c r="I435" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J435"/>
       <c r="K435" t="s">
@@ -20352,7 +20349,7 @@
         <v>16</v>
       </c>
       <c r="I453" t="s">
-        <v>1074</v>
+        <v>26</v>
       </c>
       <c r="J453"/>
       <c r="K453" t="s">
@@ -20376,19 +20373,19 @@
         <v>721</v>
       </c>
       <c r="E454" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F454" t="s">
         <v>1075</v>
       </c>
-      <c r="F454" t="s">
+      <c r="G454" t="s">
+        <v>15</v>
+      </c>
+      <c r="H454" t="s">
+        <v>16</v>
+      </c>
+      <c r="I454" t="s">
         <v>1076</v>
-      </c>
-      <c r="G454" t="s">
-        <v>15</v>
-      </c>
-      <c r="H454" t="s">
-        <v>16</v>
-      </c>
-      <c r="I454" t="s">
-        <v>1077</v>
       </c>
       <c r="J454"/>
       <c r="K454" t="s">
@@ -20412,19 +20409,19 @@
         <v>721</v>
       </c>
       <c r="E455" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F455" t="s">
         <v>1078</v>
       </c>
-      <c r="F455" t="s">
+      <c r="G455" t="s">
+        <v>15</v>
+      </c>
+      <c r="H455" t="s">
+        <v>16</v>
+      </c>
+      <c r="I455" t="s">
         <v>1079</v>
-      </c>
-      <c r="G455" t="s">
-        <v>15</v>
-      </c>
-      <c r="H455" t="s">
-        <v>16</v>
-      </c>
-      <c r="I455" t="s">
-        <v>1080</v>
       </c>
       <c r="J455"/>
       <c r="K455" t="s">
@@ -20448,10 +20445,10 @@
         <v>721</v>
       </c>
       <c r="E456" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F456" t="s">
         <v>1081</v>
-      </c>
-      <c r="F456" t="s">
-        <v>1082</v>
       </c>
       <c r="G456" t="s">
         <v>15</v>
@@ -20484,10 +20481,10 @@
         <v>721</v>
       </c>
       <c r="E457" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F457" t="s">
         <v>1083</v>
-      </c>
-      <c r="F457" t="s">
-        <v>1084</v>
       </c>
       <c r="G457" t="s">
         <v>15</v>
@@ -20520,19 +20517,19 @@
         <v>721</v>
       </c>
       <c r="E458" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F458" t="s">
         <v>1085</v>
       </c>
-      <c r="F458" t="s">
+      <c r="G458" t="s">
+        <v>15</v>
+      </c>
+      <c r="H458" t="s">
+        <v>16</v>
+      </c>
+      <c r="I458" t="s">
         <v>1086</v>
-      </c>
-      <c r="G458" t="s">
-        <v>15</v>
-      </c>
-      <c r="H458" t="s">
-        <v>16</v>
-      </c>
-      <c r="I458" t="s">
-        <v>1087</v>
       </c>
       <c r="J458"/>
       <c r="K458" t="s">
@@ -20556,19 +20553,19 @@
         <v>721</v>
       </c>
       <c r="E459" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F459" t="s">
         <v>1088</v>
       </c>
-      <c r="F459" t="s">
+      <c r="G459" t="s">
+        <v>15</v>
+      </c>
+      <c r="H459" t="s">
+        <v>16</v>
+      </c>
+      <c r="I459" t="s">
         <v>1089</v>
-      </c>
-      <c r="G459" t="s">
-        <v>15</v>
-      </c>
-      <c r="H459" t="s">
-        <v>16</v>
-      </c>
-      <c r="I459" t="s">
-        <v>1090</v>
       </c>
       <c r="J459"/>
       <c r="K459" t="s">
@@ -20592,10 +20589,10 @@
         <v>721</v>
       </c>
       <c r="E460" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F460" t="s">
         <v>1091</v>
-      </c>
-      <c r="F460" t="s">
-        <v>1092</v>
       </c>
       <c r="G460" t="s">
         <v>15</v>
@@ -20628,10 +20625,10 @@
         <v>721</v>
       </c>
       <c r="E461" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F461" t="s">
         <v>1093</v>
-      </c>
-      <c r="F461" t="s">
-        <v>1094</v>
       </c>
       <c r="G461" t="s">
         <v>15</v>
@@ -20664,19 +20661,19 @@
         <v>721</v>
       </c>
       <c r="E462" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F462" t="s">
         <v>1095</v>
       </c>
-      <c r="F462" t="s">
+      <c r="G462" t="s">
+        <v>15</v>
+      </c>
+      <c r="H462" t="s">
+        <v>16</v>
+      </c>
+      <c r="I462" t="s">
         <v>1096</v>
-      </c>
-      <c r="G462" t="s">
-        <v>15</v>
-      </c>
-      <c r="H462" t="s">
-        <v>16</v>
-      </c>
-      <c r="I462" t="s">
-        <v>1097</v>
       </c>
       <c r="J462"/>
       <c r="K462" t="s">
@@ -20700,10 +20697,10 @@
         <v>721</v>
       </c>
       <c r="E463" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F463" t="s">
         <v>1098</v>
-      </c>
-      <c r="F463" t="s">
-        <v>1099</v>
       </c>
       <c r="G463" t="s">
         <v>15</v>
@@ -20736,19 +20733,19 @@
         <v>721</v>
       </c>
       <c r="E464" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F464" t="s">
         <v>1100</v>
       </c>
-      <c r="F464" t="s">
+      <c r="G464" t="s">
+        <v>15</v>
+      </c>
+      <c r="H464" t="s">
+        <v>16</v>
+      </c>
+      <c r="I464" t="s">
         <v>1101</v>
-      </c>
-      <c r="G464" t="s">
-        <v>15</v>
-      </c>
-      <c r="H464" t="s">
-        <v>16</v>
-      </c>
-      <c r="I464" t="s">
-        <v>1102</v>
       </c>
       <c r="J464"/>
       <c r="K464" t="s">
@@ -20772,19 +20769,19 @@
         <v>721</v>
       </c>
       <c r="E465" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F465" t="s">
         <v>1103</v>
       </c>
-      <c r="F465" t="s">
+      <c r="G465" t="s">
+        <v>15</v>
+      </c>
+      <c r="H465" t="s">
+        <v>16</v>
+      </c>
+      <c r="I465" t="s">
         <v>1104</v>
-      </c>
-      <c r="G465" t="s">
-        <v>15</v>
-      </c>
-      <c r="H465" t="s">
-        <v>16</v>
-      </c>
-      <c r="I465" t="s">
-        <v>1105</v>
       </c>
       <c r="J465"/>
       <c r="K465" t="s">
@@ -20808,10 +20805,10 @@
         <v>721</v>
       </c>
       <c r="E466" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F466" t="s">
         <v>1106</v>
-      </c>
-      <c r="F466" t="s">
-        <v>1107</v>
       </c>
       <c r="G466" t="s">
         <v>15</v>
@@ -20844,10 +20841,10 @@
         <v>721</v>
       </c>
       <c r="E467" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F467" t="s">
         <v>1108</v>
-      </c>
-      <c r="F467" t="s">
-        <v>1109</v>
       </c>
       <c r="G467" t="s">
         <v>15</v>
@@ -20880,19 +20877,19 @@
         <v>721</v>
       </c>
       <c r="E468" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F468" t="s">
         <v>1110</v>
       </c>
-      <c r="F468" t="s">
+      <c r="G468" t="s">
+        <v>15</v>
+      </c>
+      <c r="H468" t="s">
+        <v>16</v>
+      </c>
+      <c r="I468" t="s">
         <v>1111</v>
-      </c>
-      <c r="G468" t="s">
-        <v>15</v>
-      </c>
-      <c r="H468" t="s">
-        <v>16</v>
-      </c>
-      <c r="I468" t="s">
-        <v>1112</v>
       </c>
       <c r="J468"/>
       <c r="K468" t="s">
@@ -20916,19 +20913,19 @@
         <v>721</v>
       </c>
       <c r="E469" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F469" t="s">
         <v>1113</v>
       </c>
-      <c r="F469" t="s">
+      <c r="G469" t="s">
+        <v>15</v>
+      </c>
+      <c r="H469" t="s">
+        <v>16</v>
+      </c>
+      <c r="I469" t="s">
         <v>1114</v>
-      </c>
-      <c r="G469" t="s">
-        <v>15</v>
-      </c>
-      <c r="H469" t="s">
-        <v>16</v>
-      </c>
-      <c r="I469" t="s">
-        <v>1115</v>
       </c>
       <c r="J469"/>
       <c r="K469" t="s">
@@ -20952,19 +20949,19 @@
         <v>721</v>
       </c>
       <c r="E470" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F470" t="s">
         <v>1116</v>
       </c>
-      <c r="F470" t="s">
+      <c r="G470" t="s">
+        <v>15</v>
+      </c>
+      <c r="H470" t="s">
+        <v>16</v>
+      </c>
+      <c r="I470" t="s">
         <v>1117</v>
-      </c>
-      <c r="G470" t="s">
-        <v>15</v>
-      </c>
-      <c r="H470" t="s">
-        <v>16</v>
-      </c>
-      <c r="I470" t="s">
-        <v>1118</v>
       </c>
       <c r="J470"/>
       <c r="K470" t="s">
@@ -20988,10 +20985,10 @@
         <v>721</v>
       </c>
       <c r="E471" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F471" t="s">
         <v>1119</v>
-      </c>
-      <c r="F471" t="s">
-        <v>1120</v>
       </c>
       <c r="G471" t="s">
         <v>15</v>
@@ -21024,11 +21021,11 @@
         <v>721</v>
       </c>
       <c r="E472" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F472" t="s">
         <v>1121</v>
       </c>
-      <c r="F472" t="s">
-        <v>1122</v>
-      </c>
       <c r="G472" t="s">
         <v>15</v>
       </c>
@@ -21036,7 +21033,7 @@
         <v>16</v>
       </c>
       <c r="I472" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="J472"/>
       <c r="K472" t="s">
@@ -21060,19 +21057,19 @@
         <v>721</v>
       </c>
       <c r="E473" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F473" t="s">
         <v>1123</v>
       </c>
-      <c r="F473" t="s">
+      <c r="G473" t="s">
+        <v>15</v>
+      </c>
+      <c r="H473" t="s">
+        <v>16</v>
+      </c>
+      <c r="I473" t="s">
         <v>1124</v>
-      </c>
-      <c r="G473" t="s">
-        <v>15</v>
-      </c>
-      <c r="H473" t="s">
-        <v>16</v>
-      </c>
-      <c r="I473" t="s">
-        <v>1125</v>
       </c>
       <c r="J473"/>
       <c r="K473" t="s">
@@ -21096,19 +21093,19 @@
         <v>721</v>
       </c>
       <c r="E474" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F474" t="s">
         <v>1126</v>
       </c>
-      <c r="F474" t="s">
+      <c r="G474" t="s">
+        <v>15</v>
+      </c>
+      <c r="H474" t="s">
+        <v>16</v>
+      </c>
+      <c r="I474" t="s">
         <v>1127</v>
-      </c>
-      <c r="G474" t="s">
-        <v>15</v>
-      </c>
-      <c r="H474" t="s">
-        <v>16</v>
-      </c>
-      <c r="I474" t="s">
-        <v>1128</v>
       </c>
       <c r="J474"/>
       <c r="K474" t="s">
@@ -21132,19 +21129,19 @@
         <v>721</v>
       </c>
       <c r="E475" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F475" t="s">
         <v>1129</v>
       </c>
-      <c r="F475" t="s">
+      <c r="G475" t="s">
+        <v>15</v>
+      </c>
+      <c r="H475" t="s">
+        <v>16</v>
+      </c>
+      <c r="I475" t="s">
         <v>1130</v>
-      </c>
-      <c r="G475" t="s">
-        <v>15</v>
-      </c>
-      <c r="H475" t="s">
-        <v>16</v>
-      </c>
-      <c r="I475" t="s">
-        <v>1131</v>
       </c>
       <c r="J475"/>
       <c r="K475" t="s">
@@ -21168,19 +21165,19 @@
         <v>721</v>
       </c>
       <c r="E476" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F476" t="s">
         <v>1132</v>
       </c>
-      <c r="F476" t="s">
+      <c r="G476" t="s">
+        <v>15</v>
+      </c>
+      <c r="H476" t="s">
+        <v>16</v>
+      </c>
+      <c r="I476" t="s">
         <v>1133</v>
-      </c>
-      <c r="G476" t="s">
-        <v>15</v>
-      </c>
-      <c r="H476" t="s">
-        <v>16</v>
-      </c>
-      <c r="I476" t="s">
-        <v>1134</v>
       </c>
       <c r="J476"/>
       <c r="K476" t="s">
@@ -21204,10 +21201,10 @@
         <v>721</v>
       </c>
       <c r="E477" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F477" t="s">
         <v>1135</v>
-      </c>
-      <c r="F477" t="s">
-        <v>1136</v>
       </c>
       <c r="G477" t="s">
         <v>15</v>
@@ -21240,19 +21237,19 @@
         <v>721</v>
       </c>
       <c r="E478" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F478" t="s">
         <v>1137</v>
       </c>
-      <c r="F478" t="s">
+      <c r="G478" t="s">
+        <v>15</v>
+      </c>
+      <c r="H478" t="s">
+        <v>16</v>
+      </c>
+      <c r="I478" t="s">
         <v>1138</v>
-      </c>
-      <c r="G478" t="s">
-        <v>15</v>
-      </c>
-      <c r="H478" t="s">
-        <v>16</v>
-      </c>
-      <c r="I478" t="s">
-        <v>1139</v>
       </c>
       <c r="J478"/>
       <c r="K478" t="s">
@@ -21276,19 +21273,19 @@
         <v>721</v>
       </c>
       <c r="E479" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F479" t="s">
         <v>1140</v>
       </c>
-      <c r="F479" t="s">
+      <c r="G479" t="s">
+        <v>15</v>
+      </c>
+      <c r="H479" t="s">
+        <v>16</v>
+      </c>
+      <c r="I479" t="s">
         <v>1141</v>
-      </c>
-      <c r="G479" t="s">
-        <v>15</v>
-      </c>
-      <c r="H479" t="s">
-        <v>16</v>
-      </c>
-      <c r="I479" t="s">
-        <v>1142</v>
       </c>
       <c r="J479"/>
       <c r="K479" t="s">
@@ -21312,10 +21309,10 @@
         <v>721</v>
       </c>
       <c r="E480" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F480" t="s">
         <v>1143</v>
-      </c>
-      <c r="F480" t="s">
-        <v>1144</v>
       </c>
       <c r="G480" t="s">
         <v>15</v>
@@ -21348,19 +21345,19 @@
         <v>721</v>
       </c>
       <c r="E481" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F481" t="s">
         <v>1145</v>
       </c>
-      <c r="F481" t="s">
+      <c r="G481" t="s">
+        <v>15</v>
+      </c>
+      <c r="H481" t="s">
+        <v>16</v>
+      </c>
+      <c r="I481" t="s">
         <v>1146</v>
-      </c>
-      <c r="G481" t="s">
-        <v>15</v>
-      </c>
-      <c r="H481" t="s">
-        <v>16</v>
-      </c>
-      <c r="I481" t="s">
-        <v>1147</v>
       </c>
       <c r="J481"/>
       <c r="K481" t="s">
@@ -21384,19 +21381,19 @@
         <v>721</v>
       </c>
       <c r="E482" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F482" t="s">
         <v>1148</v>
       </c>
-      <c r="F482" t="s">
+      <c r="G482" t="s">
+        <v>15</v>
+      </c>
+      <c r="H482" t="s">
+        <v>16</v>
+      </c>
+      <c r="I482" t="s">
         <v>1149</v>
-      </c>
-      <c r="G482" t="s">
-        <v>15</v>
-      </c>
-      <c r="H482" t="s">
-        <v>16</v>
-      </c>
-      <c r="I482" t="s">
-        <v>1150</v>
       </c>
       <c r="J482"/>
       <c r="K482" t="s">
@@ -21420,19 +21417,19 @@
         <v>721</v>
       </c>
       <c r="E483" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F483" t="s">
         <v>1151</v>
       </c>
-      <c r="F483" t="s">
+      <c r="G483" t="s">
+        <v>15</v>
+      </c>
+      <c r="H483" t="s">
+        <v>16</v>
+      </c>
+      <c r="I483" t="s">
         <v>1152</v>
-      </c>
-      <c r="G483" t="s">
-        <v>15</v>
-      </c>
-      <c r="H483" t="s">
-        <v>16</v>
-      </c>
-      <c r="I483" t="s">
-        <v>1153</v>
       </c>
       <c r="J483"/>
       <c r="K483" t="s">
@@ -21456,19 +21453,19 @@
         <v>721</v>
       </c>
       <c r="E484" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F484" t="s">
         <v>1154</v>
       </c>
-      <c r="F484" t="s">
+      <c r="G484" t="s">
+        <v>15</v>
+      </c>
+      <c r="H484" t="s">
+        <v>16</v>
+      </c>
+      <c r="I484" t="s">
         <v>1155</v>
-      </c>
-      <c r="G484" t="s">
-        <v>15</v>
-      </c>
-      <c r="H484" t="s">
-        <v>16</v>
-      </c>
-      <c r="I484" t="s">
-        <v>1156</v>
       </c>
       <c r="J484"/>
       <c r="K484" t="s">
@@ -21492,19 +21489,19 @@
         <v>721</v>
       </c>
       <c r="E485" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F485" t="s">
         <v>1157</v>
       </c>
-      <c r="F485" t="s">
+      <c r="G485" t="s">
+        <v>15</v>
+      </c>
+      <c r="H485" t="s">
+        <v>16</v>
+      </c>
+      <c r="I485" t="s">
         <v>1158</v>
-      </c>
-      <c r="G485" t="s">
-        <v>15</v>
-      </c>
-      <c r="H485" t="s">
-        <v>16</v>
-      </c>
-      <c r="I485" t="s">
-        <v>1159</v>
       </c>
       <c r="J485"/>
       <c r="K485" t="s">
@@ -21528,19 +21525,19 @@
         <v>721</v>
       </c>
       <c r="E486" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F486" t="s">
         <v>1160</v>
       </c>
-      <c r="F486" t="s">
+      <c r="G486" t="s">
+        <v>15</v>
+      </c>
+      <c r="H486" t="s">
+        <v>16</v>
+      </c>
+      <c r="I486" t="s">
         <v>1161</v>
-      </c>
-      <c r="G486" t="s">
-        <v>15</v>
-      </c>
-      <c r="H486" t="s">
-        <v>16</v>
-      </c>
-      <c r="I486" t="s">
-        <v>1162</v>
       </c>
       <c r="J486"/>
       <c r="K486" t="s">
@@ -21564,10 +21561,10 @@
         <v>721</v>
       </c>
       <c r="E487" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F487" t="s">
         <v>1163</v>
-      </c>
-      <c r="F487" t="s">
-        <v>1164</v>
       </c>
       <c r="G487" t="s">
         <v>15</v>
@@ -21600,19 +21597,19 @@
         <v>721</v>
       </c>
       <c r="E488" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F488" t="s">
         <v>1165</v>
       </c>
-      <c r="F488" t="s">
+      <c r="G488" t="s">
+        <v>15</v>
+      </c>
+      <c r="H488" t="s">
+        <v>16</v>
+      </c>
+      <c r="I488" t="s">
         <v>1166</v>
-      </c>
-      <c r="G488" t="s">
-        <v>15</v>
-      </c>
-      <c r="H488" t="s">
-        <v>16</v>
-      </c>
-      <c r="I488" t="s">
-        <v>1167</v>
       </c>
       <c r="J488"/>
       <c r="K488" t="s">
@@ -21636,10 +21633,10 @@
         <v>721</v>
       </c>
       <c r="E489" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F489" t="s">
         <v>1168</v>
-      </c>
-      <c r="F489" t="s">
-        <v>1169</v>
       </c>
       <c r="G489" t="s">
         <v>15</v>
@@ -21672,19 +21669,19 @@
         <v>721</v>
       </c>
       <c r="E490" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F490" t="s">
         <v>1170</v>
       </c>
-      <c r="F490" t="s">
+      <c r="G490" t="s">
+        <v>15</v>
+      </c>
+      <c r="H490" t="s">
+        <v>16</v>
+      </c>
+      <c r="I490" t="s">
         <v>1171</v>
-      </c>
-      <c r="G490" t="s">
-        <v>15</v>
-      </c>
-      <c r="H490" t="s">
-        <v>16</v>
-      </c>
-      <c r="I490" t="s">
-        <v>1172</v>
       </c>
       <c r="J490"/>
       <c r="K490" t="s">
@@ -21708,10 +21705,10 @@
         <v>721</v>
       </c>
       <c r="E491" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F491" t="s">
         <v>1173</v>
-      </c>
-      <c r="F491" t="s">
-        <v>1174</v>
       </c>
       <c r="G491" t="s">
         <v>15</v>
@@ -21744,10 +21741,10 @@
         <v>721</v>
       </c>
       <c r="E492" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F492" t="s">
         <v>1175</v>
-      </c>
-      <c r="F492" t="s">
-        <v>1176</v>
       </c>
       <c r="G492" t="s">
         <v>15</v>
@@ -21780,19 +21777,19 @@
         <v>721</v>
       </c>
       <c r="E493" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F493" t="s">
         <v>1177</v>
       </c>
-      <c r="F493" t="s">
+      <c r="G493" t="s">
+        <v>15</v>
+      </c>
+      <c r="H493" t="s">
+        <v>16</v>
+      </c>
+      <c r="I493" t="s">
         <v>1178</v>
-      </c>
-      <c r="G493" t="s">
-        <v>15</v>
-      </c>
-      <c r="H493" t="s">
-        <v>16</v>
-      </c>
-      <c r="I493" t="s">
-        <v>1179</v>
       </c>
       <c r="J493"/>
       <c r="K493" t="s">
@@ -21816,11 +21813,11 @@
         <v>721</v>
       </c>
       <c r="E494" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F494" t="s">
         <v>1180</v>
       </c>
-      <c r="F494" t="s">
-        <v>1181</v>
-      </c>
       <c r="G494" t="s">
         <v>15</v>
       </c>
@@ -21828,7 +21825,7 @@
         <v>16</v>
       </c>
       <c r="I494" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J494"/>
       <c r="K494" t="s">
@@ -21852,19 +21849,19 @@
         <v>721</v>
       </c>
       <c r="E495" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F495" t="s">
         <v>1182</v>
       </c>
-      <c r="F495" t="s">
+      <c r="G495" t="s">
+        <v>15</v>
+      </c>
+      <c r="H495" t="s">
+        <v>16</v>
+      </c>
+      <c r="I495" t="s">
         <v>1183</v>
-      </c>
-      <c r="G495" t="s">
-        <v>15</v>
-      </c>
-      <c r="H495" t="s">
-        <v>16</v>
-      </c>
-      <c r="I495" t="s">
-        <v>1184</v>
       </c>
       <c r="J495"/>
       <c r="K495" t="s">
@@ -21888,19 +21885,19 @@
         <v>721</v>
       </c>
       <c r="E496" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F496" t="s">
         <v>1185</v>
       </c>
-      <c r="F496" t="s">
+      <c r="G496" t="s">
+        <v>15</v>
+      </c>
+      <c r="H496" t="s">
+        <v>16</v>
+      </c>
+      <c r="I496" t="s">
         <v>1186</v>
-      </c>
-      <c r="G496" t="s">
-        <v>15</v>
-      </c>
-      <c r="H496" t="s">
-        <v>16</v>
-      </c>
-      <c r="I496" t="s">
-        <v>1187</v>
       </c>
       <c r="J496"/>
       <c r="K496" t="s">
@@ -21924,19 +21921,19 @@
         <v>721</v>
       </c>
       <c r="E497" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F497" t="s">
         <v>1188</v>
       </c>
-      <c r="F497" t="s">
+      <c r="G497" t="s">
+        <v>15</v>
+      </c>
+      <c r="H497" t="s">
+        <v>16</v>
+      </c>
+      <c r="I497" t="s">
         <v>1189</v>
-      </c>
-      <c r="G497" t="s">
-        <v>15</v>
-      </c>
-      <c r="H497" t="s">
-        <v>16</v>
-      </c>
-      <c r="I497" t="s">
-        <v>1190</v>
       </c>
       <c r="J497"/>
       <c r="K497" t="s">
@@ -21960,19 +21957,19 @@
         <v>721</v>
       </c>
       <c r="E498" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F498" t="s">
         <v>1191</v>
       </c>
-      <c r="F498" t="s">
+      <c r="G498" t="s">
+        <v>15</v>
+      </c>
+      <c r="H498" t="s">
+        <v>16</v>
+      </c>
+      <c r="I498" t="s">
         <v>1192</v>
-      </c>
-      <c r="G498" t="s">
-        <v>15</v>
-      </c>
-      <c r="H498" t="s">
-        <v>16</v>
-      </c>
-      <c r="I498" t="s">
-        <v>1193</v>
       </c>
       <c r="J498"/>
       <c r="K498" t="s">
@@ -21996,19 +21993,19 @@
         <v>721</v>
       </c>
       <c r="E499" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F499" t="s">
         <v>1194</v>
       </c>
-      <c r="F499" t="s">
+      <c r="G499" t="s">
+        <v>15</v>
+      </c>
+      <c r="H499" t="s">
+        <v>16</v>
+      </c>
+      <c r="I499" t="s">
         <v>1195</v>
-      </c>
-      <c r="G499" t="s">
-        <v>15</v>
-      </c>
-      <c r="H499" t="s">
-        <v>16</v>
-      </c>
-      <c r="I499" t="s">
-        <v>1196</v>
       </c>
       <c r="J499"/>
       <c r="K499" t="s">
@@ -22032,19 +22029,19 @@
         <v>721</v>
       </c>
       <c r="E500" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F500" t="s">
         <v>1197</v>
       </c>
-      <c r="F500" t="s">
+      <c r="G500" t="s">
+        <v>15</v>
+      </c>
+      <c r="H500" t="s">
+        <v>16</v>
+      </c>
+      <c r="I500" t="s">
         <v>1198</v>
-      </c>
-      <c r="G500" t="s">
-        <v>15</v>
-      </c>
-      <c r="H500" t="s">
-        <v>16</v>
-      </c>
-      <c r="I500" t="s">
-        <v>1199</v>
       </c>
       <c r="J500"/>
       <c r="K500" t="s">
@@ -22068,19 +22065,19 @@
         <v>721</v>
       </c>
       <c r="E501" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F501" t="s">
         <v>1200</v>
       </c>
-      <c r="F501" t="s">
+      <c r="G501" t="s">
+        <v>15</v>
+      </c>
+      <c r="H501" t="s">
+        <v>16</v>
+      </c>
+      <c r="I501" t="s">
         <v>1201</v>
-      </c>
-      <c r="G501" t="s">
-        <v>15</v>
-      </c>
-      <c r="H501" t="s">
-        <v>16</v>
-      </c>
-      <c r="I501" t="s">
-        <v>1202</v>
       </c>
       <c r="J501"/>
       <c r="K501" t="s">
@@ -22104,19 +22101,19 @@
         <v>721</v>
       </c>
       <c r="E502" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F502" t="s">
         <v>1203</v>
       </c>
-      <c r="F502" t="s">
+      <c r="G502" t="s">
+        <v>15</v>
+      </c>
+      <c r="H502" t="s">
+        <v>16</v>
+      </c>
+      <c r="I502" t="s">
         <v>1204</v>
-      </c>
-      <c r="G502" t="s">
-        <v>15</v>
-      </c>
-      <c r="H502" t="s">
-        <v>16</v>
-      </c>
-      <c r="I502" t="s">
-        <v>1205</v>
       </c>
       <c r="J502"/>
       <c r="K502" t="s">
@@ -22140,10 +22137,10 @@
         <v>721</v>
       </c>
       <c r="E503" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F503" t="s">
         <v>1206</v>
-      </c>
-      <c r="F503" t="s">
-        <v>1207</v>
       </c>
       <c r="G503" t="s">
         <v>15</v>
@@ -22176,19 +22173,19 @@
         <v>721</v>
       </c>
       <c r="E504" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F504" t="s">
         <v>1208</v>
       </c>
-      <c r="F504" t="s">
+      <c r="G504" t="s">
+        <v>15</v>
+      </c>
+      <c r="H504" t="s">
+        <v>16</v>
+      </c>
+      <c r="I504" t="s">
         <v>1209</v>
-      </c>
-      <c r="G504" t="s">
-        <v>15</v>
-      </c>
-      <c r="H504" t="s">
-        <v>16</v>
-      </c>
-      <c r="I504" t="s">
-        <v>1210</v>
       </c>
       <c r="J504"/>
       <c r="K504" t="s">
@@ -22212,19 +22209,19 @@
         <v>721</v>
       </c>
       <c r="E505" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F505" t="s">
         <v>1211</v>
       </c>
-      <c r="F505" t="s">
+      <c r="G505" t="s">
+        <v>15</v>
+      </c>
+      <c r="H505" t="s">
+        <v>16</v>
+      </c>
+      <c r="I505" t="s">
         <v>1212</v>
-      </c>
-      <c r="G505" t="s">
-        <v>15</v>
-      </c>
-      <c r="H505" t="s">
-        <v>16</v>
-      </c>
-      <c r="I505" t="s">
-        <v>1213</v>
       </c>
       <c r="J505"/>
       <c r="K505" t="s">
@@ -22248,19 +22245,19 @@
         <v>721</v>
       </c>
       <c r="E506" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F506" t="s">
         <v>1214</v>
       </c>
-      <c r="F506" t="s">
+      <c r="G506" t="s">
+        <v>15</v>
+      </c>
+      <c r="H506" t="s">
+        <v>16</v>
+      </c>
+      <c r="I506" t="s">
         <v>1215</v>
-      </c>
-      <c r="G506" t="s">
-        <v>15</v>
-      </c>
-      <c r="H506" t="s">
-        <v>16</v>
-      </c>
-      <c r="I506" t="s">
-        <v>1216</v>
       </c>
       <c r="J506"/>
       <c r="K506" t="s">
@@ -22284,10 +22281,10 @@
         <v>721</v>
       </c>
       <c r="E507" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F507" t="s">
         <v>1217</v>
-      </c>
-      <c r="F507" t="s">
-        <v>1218</v>
       </c>
       <c r="G507" t="s">
         <v>15</v>
@@ -22320,19 +22317,19 @@
         <v>721</v>
       </c>
       <c r="E508" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F508" t="s">
         <v>1219</v>
       </c>
-      <c r="F508" t="s">
+      <c r="G508" t="s">
+        <v>15</v>
+      </c>
+      <c r="H508" t="s">
+        <v>16</v>
+      </c>
+      <c r="I508" t="s">
         <v>1220</v>
-      </c>
-      <c r="G508" t="s">
-        <v>15</v>
-      </c>
-      <c r="H508" t="s">
-        <v>16</v>
-      </c>
-      <c r="I508" t="s">
-        <v>1221</v>
       </c>
       <c r="J508"/>
       <c r="K508" t="s">
@@ -22356,11 +22353,11 @@
         <v>721</v>
       </c>
       <c r="E509" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F509" t="s">
         <v>1222</v>
       </c>
-      <c r="F509" t="s">
-        <v>1223</v>
-      </c>
       <c r="G509" t="s">
         <v>15</v>
       </c>
@@ -22368,7 +22365,7 @@
         <v>16</v>
       </c>
       <c r="I509" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="J509"/>
       <c r="K509" t="s">
@@ -22392,11 +22389,11 @@
         <v>721</v>
       </c>
       <c r="E510" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F510" t="s">
         <v>1224</v>
       </c>
-      <c r="F510" t="s">
-        <v>1225</v>
-      </c>
       <c r="G510" t="s">
         <v>15</v>
       </c>
@@ -22404,7 +22401,7 @@
         <v>16</v>
       </c>
       <c r="I510" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="J510"/>
       <c r="K510" t="s">
@@ -22428,19 +22425,19 @@
         <v>721</v>
       </c>
       <c r="E511" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F511" t="s">
         <v>1226</v>
       </c>
-      <c r="F511" t="s">
+      <c r="G511" t="s">
+        <v>15</v>
+      </c>
+      <c r="H511" t="s">
+        <v>16</v>
+      </c>
+      <c r="I511" t="s">
         <v>1227</v>
-      </c>
-      <c r="G511" t="s">
-        <v>15</v>
-      </c>
-      <c r="H511" t="s">
-        <v>16</v>
-      </c>
-      <c r="I511" t="s">
-        <v>1228</v>
       </c>
       <c r="J511"/>
       <c r="K511" t="s">
@@ -22464,19 +22461,19 @@
         <v>721</v>
       </c>
       <c r="E512" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F512" t="s">
         <v>1229</v>
       </c>
-      <c r="F512" t="s">
+      <c r="G512" t="s">
+        <v>15</v>
+      </c>
+      <c r="H512" t="s">
+        <v>16</v>
+      </c>
+      <c r="I512" t="s">
         <v>1230</v>
-      </c>
-      <c r="G512" t="s">
-        <v>15</v>
-      </c>
-      <c r="H512" t="s">
-        <v>16</v>
-      </c>
-      <c r="I512" t="s">
-        <v>1231</v>
       </c>
       <c r="J512"/>
       <c r="K512" t="s">
@@ -22500,10 +22497,10 @@
         <v>721</v>
       </c>
       <c r="E513" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F513" t="s">
         <v>1232</v>
-      </c>
-      <c r="F513" t="s">
-        <v>1233</v>
       </c>
       <c r="G513" t="s">
         <v>15</v>
@@ -22536,19 +22533,19 @@
         <v>721</v>
       </c>
       <c r="E514" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F514" t="s">
         <v>1234</v>
       </c>
-      <c r="F514" t="s">
+      <c r="G514" t="s">
+        <v>15</v>
+      </c>
+      <c r="H514" t="s">
+        <v>16</v>
+      </c>
+      <c r="I514" t="s">
         <v>1235</v>
-      </c>
-      <c r="G514" t="s">
-        <v>15</v>
-      </c>
-      <c r="H514" t="s">
-        <v>16</v>
-      </c>
-      <c r="I514" t="s">
-        <v>1236</v>
       </c>
       <c r="J514"/>
       <c r="K514" t="s">
@@ -22572,10 +22569,10 @@
         <v>721</v>
       </c>
       <c r="E515" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F515" t="s">
         <v>1237</v>
-      </c>
-      <c r="F515" t="s">
-        <v>1238</v>
       </c>
       <c r="G515" t="s">
         <v>15</v>
@@ -22608,19 +22605,19 @@
         <v>721</v>
       </c>
       <c r="E516" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F516" t="s">
         <v>1239</v>
       </c>
-      <c r="F516" t="s">
+      <c r="G516" t="s">
+        <v>15</v>
+      </c>
+      <c r="H516" t="s">
+        <v>16</v>
+      </c>
+      <c r="I516" t="s">
         <v>1240</v>
-      </c>
-      <c r="G516" t="s">
-        <v>15</v>
-      </c>
-      <c r="H516" t="s">
-        <v>16</v>
-      </c>
-      <c r="I516" t="s">
-        <v>1241</v>
       </c>
       <c r="J516"/>
       <c r="K516" t="s">
@@ -22644,19 +22641,19 @@
         <v>721</v>
       </c>
       <c r="E517" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F517" t="s">
         <v>1242</v>
       </c>
-      <c r="F517" t="s">
+      <c r="G517" t="s">
+        <v>15</v>
+      </c>
+      <c r="H517" t="s">
+        <v>16</v>
+      </c>
+      <c r="I517" t="s">
         <v>1243</v>
-      </c>
-      <c r="G517" t="s">
-        <v>15</v>
-      </c>
-      <c r="H517" t="s">
-        <v>16</v>
-      </c>
-      <c r="I517" t="s">
-        <v>1244</v>
       </c>
       <c r="J517"/>
       <c r="K517" t="s">
@@ -22680,19 +22677,19 @@
         <v>721</v>
       </c>
       <c r="E518" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F518" t="s">
         <v>1245</v>
       </c>
-      <c r="F518" t="s">
+      <c r="G518" t="s">
+        <v>15</v>
+      </c>
+      <c r="H518" t="s">
+        <v>16</v>
+      </c>
+      <c r="I518" t="s">
         <v>1246</v>
-      </c>
-      <c r="G518" t="s">
-        <v>15</v>
-      </c>
-      <c r="H518" t="s">
-        <v>16</v>
-      </c>
-      <c r="I518" t="s">
-        <v>1247</v>
       </c>
       <c r="J518"/>
       <c r="K518" t="s">
@@ -22716,10 +22713,10 @@
         <v>721</v>
       </c>
       <c r="E519" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F519" t="s">
         <v>1248</v>
-      </c>
-      <c r="F519" t="s">
-        <v>1249</v>
       </c>
       <c r="G519" t="s">
         <v>15</v>
@@ -22752,19 +22749,19 @@
         <v>721</v>
       </c>
       <c r="E520" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F520" t="s">
         <v>1250</v>
       </c>
-      <c r="F520" t="s">
+      <c r="G520" t="s">
+        <v>15</v>
+      </c>
+      <c r="H520" t="s">
+        <v>16</v>
+      </c>
+      <c r="I520" t="s">
         <v>1251</v>
-      </c>
-      <c r="G520" t="s">
-        <v>15</v>
-      </c>
-      <c r="H520" t="s">
-        <v>16</v>
-      </c>
-      <c r="I520" t="s">
-        <v>1252</v>
       </c>
       <c r="J520"/>
       <c r="K520" t="s">
@@ -22788,10 +22785,10 @@
         <v>721</v>
       </c>
       <c r="E521" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F521" t="s">
         <v>1253</v>
-      </c>
-      <c r="F521" t="s">
-        <v>1254</v>
       </c>
       <c r="G521" t="s">
         <v>15</v>
@@ -22824,19 +22821,19 @@
         <v>721</v>
       </c>
       <c r="E522" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F522" t="s">
         <v>1255</v>
       </c>
-      <c r="F522" t="s">
+      <c r="G522" t="s">
+        <v>15</v>
+      </c>
+      <c r="H522" t="s">
+        <v>16</v>
+      </c>
+      <c r="I522" t="s">
         <v>1256</v>
-      </c>
-      <c r="G522" t="s">
-        <v>15</v>
-      </c>
-      <c r="H522" t="s">
-        <v>16</v>
-      </c>
-      <c r="I522" t="s">
-        <v>1257</v>
       </c>
       <c r="J522"/>
       <c r="K522" t="s">
@@ -22860,19 +22857,19 @@
         <v>721</v>
       </c>
       <c r="E523" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F523" t="s">
         <v>1258</v>
       </c>
-      <c r="F523" t="s">
+      <c r="G523" t="s">
+        <v>15</v>
+      </c>
+      <c r="H523" t="s">
+        <v>16</v>
+      </c>
+      <c r="I523" t="s">
         <v>1259</v>
-      </c>
-      <c r="G523" t="s">
-        <v>15</v>
-      </c>
-      <c r="H523" t="s">
-        <v>16</v>
-      </c>
-      <c r="I523" t="s">
-        <v>1260</v>
       </c>
       <c r="J523"/>
       <c r="K523" t="s">
@@ -22896,10 +22893,10 @@
         <v>721</v>
       </c>
       <c r="E524" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F524" t="s">
         <v>1261</v>
-      </c>
-      <c r="F524" t="s">
-        <v>1262</v>
       </c>
       <c r="G524" t="s">
         <v>15</v>
@@ -22932,19 +22929,19 @@
         <v>721</v>
       </c>
       <c r="E525" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F525" t="s">
         <v>1263</v>
       </c>
-      <c r="F525" t="s">
+      <c r="G525" t="s">
+        <v>15</v>
+      </c>
+      <c r="H525" t="s">
+        <v>16</v>
+      </c>
+      <c r="I525" t="s">
         <v>1264</v>
-      </c>
-      <c r="G525" t="s">
-        <v>15</v>
-      </c>
-      <c r="H525" t="s">
-        <v>16</v>
-      </c>
-      <c r="I525" t="s">
-        <v>1265</v>
       </c>
       <c r="J525"/>
       <c r="K525" t="s">
@@ -22968,19 +22965,19 @@
         <v>721</v>
       </c>
       <c r="E526" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F526" t="s">
         <v>1266</v>
       </c>
-      <c r="F526" t="s">
+      <c r="G526" t="s">
+        <v>15</v>
+      </c>
+      <c r="H526" t="s">
+        <v>16</v>
+      </c>
+      <c r="I526" t="s">
         <v>1267</v>
-      </c>
-      <c r="G526" t="s">
-        <v>15</v>
-      </c>
-      <c r="H526" t="s">
-        <v>16</v>
-      </c>
-      <c r="I526" t="s">
-        <v>1268</v>
       </c>
       <c r="J526"/>
       <c r="K526" t="s">
